--- a/data/google_trends_brazil.xlsx
+++ b/data/google_trends_brazil.xlsx
@@ -22,7 +22,7 @@
     <t>search_term_selic</t>
   </si>
   <si>
-    <t>search_term_inflação</t>
+    <t>search_term_inflation</t>
   </si>
 </sst>
 </file>

--- a/data/google_trends_brazil.xlsx
+++ b/data/google_trends_brazil.xlsx
@@ -16,13 +16,13 @@
     <t>month_date</t>
   </si>
   <si>
+    <t>search_term_inflation</t>
+  </si>
+  <si>
     <t>search_term_ipca</t>
   </si>
   <si>
-    <t>search_term_selic</t>
-  </si>
-  <si>
-    <t>search_term_inflation</t>
+    <t>search_term_igpm</t>
   </si>
 </sst>
 </file>
@@ -314,13 +314,13 @@
         <v>37987.0</v>
       </c>
       <c r="B2" s="3">
-        <v>30.0</v>
+        <v>41.0</v>
       </c>
       <c r="C2" s="3">
-        <v>37.0</v>
+        <v>21.0</v>
       </c>
       <c r="D2" s="3">
-        <v>46.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="3">
@@ -328,13 +328,13 @@
         <v>38018.0</v>
       </c>
       <c r="B3" s="3">
-        <v>14.0</v>
+        <v>39.0</v>
       </c>
       <c r="C3" s="3">
-        <v>47.0</v>
+        <v>13.0</v>
       </c>
       <c r="D3" s="3">
-        <v>33.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="4">
@@ -342,13 +342,13 @@
         <v>38047.0</v>
       </c>
       <c r="B4" s="3">
-        <v>15.0</v>
+        <v>60.0</v>
       </c>
       <c r="C4" s="3">
-        <v>47.0</v>
+        <v>4.0</v>
       </c>
       <c r="D4" s="3">
-        <v>54.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="5">
@@ -356,13 +356,13 @@
         <v>38078.0</v>
       </c>
       <c r="B5" s="3">
-        <v>20.0</v>
+        <v>57.0</v>
       </c>
       <c r="C5" s="3">
-        <v>57.0</v>
+        <v>14.0</v>
       </c>
       <c r="D5" s="3">
-        <v>61.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="6">
@@ -370,13 +370,13 @@
         <v>38108.0</v>
       </c>
       <c r="B6" s="3">
-        <v>26.0</v>
+        <v>66.0</v>
       </c>
       <c r="C6" s="3">
-        <v>61.0</v>
+        <v>19.0</v>
       </c>
       <c r="D6" s="3">
-        <v>63.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="7">
@@ -384,13 +384,13 @@
         <v>38139.0</v>
       </c>
       <c r="B7" s="3">
-        <v>26.0</v>
+        <v>71.0</v>
       </c>
       <c r="C7" s="3">
-        <v>53.0</v>
+        <v>11.0</v>
       </c>
       <c r="D7" s="3">
-        <v>75.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="8">
@@ -398,13 +398,13 @@
         <v>38169.0</v>
       </c>
       <c r="B8" s="3">
-        <v>22.0</v>
+        <v>34.0</v>
       </c>
       <c r="C8" s="3">
-        <v>44.0</v>
+        <v>14.0</v>
       </c>
       <c r="D8" s="3">
-        <v>35.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="9">
@@ -412,13 +412,13 @@
         <v>38200.0</v>
       </c>
       <c r="B9" s="3">
-        <v>31.0</v>
+        <v>45.0</v>
       </c>
       <c r="C9" s="3">
-        <v>37.0</v>
+        <v>21.0</v>
       </c>
       <c r="D9" s="3">
-        <v>49.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="10">
@@ -426,13 +426,13 @@
         <v>38231.0</v>
       </c>
       <c r="B10" s="3">
-        <v>28.0</v>
+        <v>54.0</v>
       </c>
       <c r="C10" s="3">
-        <v>55.0</v>
+        <v>20.0</v>
       </c>
       <c r="D10" s="3">
-        <v>53.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="11">
@@ -440,13 +440,13 @@
         <v>38261.0</v>
       </c>
       <c r="B11" s="3">
-        <v>19.0</v>
+        <v>54.0</v>
       </c>
       <c r="C11" s="3">
-        <v>52.0</v>
+        <v>13.0</v>
       </c>
       <c r="D11" s="3">
-        <v>65.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="12">
@@ -454,13 +454,13 @@
         <v>38292.0</v>
       </c>
       <c r="B12" s="3">
-        <v>25.0</v>
+        <v>81.0</v>
       </c>
       <c r="C12" s="3">
-        <v>45.0</v>
+        <v>18.0</v>
       </c>
       <c r="D12" s="3">
-        <v>83.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="13">
@@ -468,13 +468,13 @@
         <v>38322.0</v>
       </c>
       <c r="B13" s="3">
-        <v>18.0</v>
+        <v>33.0</v>
       </c>
       <c r="C13" s="3">
-        <v>44.0</v>
+        <v>16.0</v>
       </c>
       <c r="D13" s="3">
-        <v>45.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="14">
@@ -482,13 +482,13 @@
         <v>38353.0</v>
       </c>
       <c r="B14" s="3">
-        <v>31.0</v>
+        <v>37.0</v>
       </c>
       <c r="C14" s="3">
-        <v>41.0</v>
+        <v>23.0</v>
       </c>
       <c r="D14" s="3">
-        <v>40.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="15">
@@ -496,13 +496,13 @@
         <v>38384.0</v>
       </c>
       <c r="B15" s="3">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
       <c r="C15" s="3">
-        <v>53.0</v>
+        <v>25.0</v>
       </c>
       <c r="D15" s="3">
-        <v>36.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="16">
@@ -510,13 +510,13 @@
         <v>38412.0</v>
       </c>
       <c r="B16" s="3">
-        <v>30.0</v>
+        <v>48.0</v>
       </c>
       <c r="C16" s="3">
-        <v>51.0</v>
+        <v>21.0</v>
       </c>
       <c r="D16" s="3">
-        <v>53.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="17">
@@ -524,13 +524,13 @@
         <v>38443.0</v>
       </c>
       <c r="B17" s="3">
-        <v>23.0</v>
+        <v>52.0</v>
       </c>
       <c r="C17" s="3">
-        <v>53.0</v>
+        <v>12.0</v>
       </c>
       <c r="D17" s="3">
-        <v>55.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="18">
@@ -538,13 +538,13 @@
         <v>38473.0</v>
       </c>
       <c r="B18" s="3">
-        <v>29.0</v>
+        <v>70.0</v>
       </c>
       <c r="C18" s="3">
-        <v>52.0</v>
+        <v>22.0</v>
       </c>
       <c r="D18" s="3">
-        <v>78.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="19">
@@ -552,13 +552,13 @@
         <v>38504.0</v>
       </c>
       <c r="B19" s="3">
-        <v>26.0</v>
+        <v>60.0</v>
       </c>
       <c r="C19" s="3">
-        <v>53.0</v>
+        <v>18.0</v>
       </c>
       <c r="D19" s="3">
-        <v>67.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="20">
@@ -566,13 +566,13 @@
         <v>38534.0</v>
       </c>
       <c r="B20" s="3">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
       <c r="C20" s="3">
-        <v>37.0</v>
+        <v>16.0</v>
       </c>
       <c r="D20" s="3">
-        <v>33.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="21">
@@ -580,13 +580,13 @@
         <v>38565.0</v>
       </c>
       <c r="B21" s="3">
-        <v>24.0</v>
+        <v>40.0</v>
       </c>
       <c r="C21" s="3">
-        <v>46.0</v>
+        <v>17.0</v>
       </c>
       <c r="D21" s="3">
-        <v>43.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="22">
@@ -594,13 +594,13 @@
         <v>38596.0</v>
       </c>
       <c r="B22" s="3">
-        <v>20.0</v>
+        <v>59.0</v>
       </c>
       <c r="C22" s="3">
-        <v>49.0</v>
+        <v>13.0</v>
       </c>
       <c r="D22" s="3">
-        <v>59.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="23">
@@ -608,13 +608,13 @@
         <v>38626.0</v>
       </c>
       <c r="B23" s="3">
-        <v>21.0</v>
+        <v>46.0</v>
       </c>
       <c r="C23" s="3">
-        <v>45.0</v>
+        <v>16.0</v>
       </c>
       <c r="D23" s="3">
-        <v>48.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="24">
@@ -622,13 +622,13 @@
         <v>38657.0</v>
       </c>
       <c r="B24" s="3">
-        <v>20.0</v>
+        <v>55.0</v>
       </c>
       <c r="C24" s="3">
-        <v>41.0</v>
+        <v>14.0</v>
       </c>
       <c r="D24" s="3">
-        <v>56.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="25">
@@ -636,13 +636,13 @@
         <v>38687.0</v>
       </c>
       <c r="B25" s="3">
-        <v>17.0</v>
+        <v>32.0</v>
       </c>
       <c r="C25" s="3">
-        <v>34.0</v>
+        <v>16.0</v>
       </c>
       <c r="D25" s="3">
-        <v>35.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="26">
@@ -650,13 +650,13 @@
         <v>38718.0</v>
       </c>
       <c r="B26" s="3">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="C26" s="3">
-        <v>37.0</v>
+        <v>19.0</v>
       </c>
       <c r="D26" s="3">
-        <v>24.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="27">
@@ -664,13 +664,13 @@
         <v>38749.0</v>
       </c>
       <c r="B27" s="3">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="C27" s="3">
-        <v>38.0</v>
+        <v>18.0</v>
       </c>
       <c r="D27" s="3">
-        <v>27.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="28">
@@ -678,13 +678,13 @@
         <v>38777.0</v>
       </c>
       <c r="B28" s="3">
-        <v>19.0</v>
+        <v>39.0</v>
       </c>
       <c r="C28" s="3">
-        <v>56.0</v>
+        <v>14.0</v>
       </c>
       <c r="D28" s="3">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="29">
@@ -692,13 +692,13 @@
         <v>38808.0</v>
       </c>
       <c r="B29" s="3">
-        <v>19.0</v>
+        <v>42.0</v>
       </c>
       <c r="C29" s="3">
-        <v>41.0</v>
+        <v>14.0</v>
       </c>
       <c r="D29" s="3">
-        <v>47.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="30">
@@ -706,13 +706,13 @@
         <v>38838.0</v>
       </c>
       <c r="B30" s="3">
-        <v>23.0</v>
+        <v>49.0</v>
       </c>
       <c r="C30" s="3">
-        <v>42.0</v>
+        <v>17.0</v>
       </c>
       <c r="D30" s="3">
-        <v>59.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="31">
@@ -720,13 +720,13 @@
         <v>38869.0</v>
       </c>
       <c r="B31" s="3">
-        <v>15.0</v>
+        <v>40.0</v>
       </c>
       <c r="C31" s="3">
-        <v>45.0</v>
+        <v>11.0</v>
       </c>
       <c r="D31" s="3">
-        <v>45.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="32">
@@ -734,13 +734,13 @@
         <v>38899.0</v>
       </c>
       <c r="B32" s="3">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="C32" s="3">
-        <v>43.0</v>
+        <v>12.0</v>
       </c>
       <c r="D32" s="3">
-        <v>21.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="33">
@@ -748,13 +748,13 @@
         <v>38930.0</v>
       </c>
       <c r="B33" s="3">
-        <v>17.0</v>
+        <v>41.0</v>
       </c>
       <c r="C33" s="3">
-        <v>38.0</v>
+        <v>13.0</v>
       </c>
       <c r="D33" s="3">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="34">
@@ -762,13 +762,13 @@
         <v>38961.0</v>
       </c>
       <c r="B34" s="3">
-        <v>15.0</v>
+        <v>28.0</v>
       </c>
       <c r="C34" s="3">
-        <v>44.0</v>
+        <v>11.0</v>
       </c>
       <c r="D34" s="3">
-        <v>30.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="35">
@@ -776,13 +776,13 @@
         <v>38991.0</v>
       </c>
       <c r="B35" s="3">
-        <v>18.0</v>
+        <v>37.0</v>
       </c>
       <c r="C35" s="3">
-        <v>43.0</v>
+        <v>12.0</v>
       </c>
       <c r="D35" s="3">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="36">
@@ -790,13 +790,13 @@
         <v>39022.0</v>
       </c>
       <c r="B36" s="3">
-        <v>17.0</v>
+        <v>48.0</v>
       </c>
       <c r="C36" s="3">
-        <v>30.0</v>
+        <v>12.0</v>
       </c>
       <c r="D36" s="3">
-        <v>50.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="37">
@@ -804,13 +804,13 @@
         <v>39052.0</v>
       </c>
       <c r="B37" s="3">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="C37" s="3">
-        <v>28.0</v>
+        <v>11.0</v>
       </c>
       <c r="D37" s="3">
-        <v>23.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="38">
@@ -818,13 +818,13 @@
         <v>39083.0</v>
       </c>
       <c r="B38" s="3">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="C38" s="3">
-        <v>28.0</v>
+        <v>14.0</v>
       </c>
       <c r="D38" s="3">
-        <v>21.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="39">
@@ -832,13 +832,13 @@
         <v>39114.0</v>
       </c>
       <c r="B39" s="3">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="C39" s="3">
-        <v>31.0</v>
+        <v>10.0</v>
       </c>
       <c r="D39" s="3">
-        <v>20.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="40">
@@ -846,13 +846,13 @@
         <v>39142.0</v>
       </c>
       <c r="B40" s="3">
-        <v>15.0</v>
+        <v>34.0</v>
       </c>
       <c r="C40" s="3">
-        <v>33.0</v>
+        <v>11.0</v>
       </c>
       <c r="D40" s="3">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="41">
@@ -860,10 +860,10 @@
         <v>39173.0</v>
       </c>
       <c r="B41" s="3">
-        <v>15.0</v>
+        <v>28.0</v>
       </c>
       <c r="C41" s="3">
-        <v>38.0</v>
+        <v>11.0</v>
       </c>
       <c r="D41" s="3">
         <v>34.0</v>
@@ -874,13 +874,13 @@
         <v>39203.0</v>
       </c>
       <c r="B42" s="3">
-        <v>16.0</v>
+        <v>34.0</v>
       </c>
       <c r="C42" s="3">
-        <v>38.0</v>
+        <v>12.0</v>
       </c>
       <c r="D42" s="3">
-        <v>38.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="43">
@@ -888,13 +888,13 @@
         <v>39234.0</v>
       </c>
       <c r="B43" s="3">
-        <v>12.0</v>
+        <v>29.0</v>
       </c>
       <c r="C43" s="3">
-        <v>40.0</v>
+        <v>10.0</v>
       </c>
       <c r="D43" s="3">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="44">
@@ -902,13 +902,13 @@
         <v>39264.0</v>
       </c>
       <c r="B44" s="3">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
       <c r="C44" s="3">
-        <v>38.0</v>
+        <v>10.0</v>
       </c>
       <c r="D44" s="3">
-        <v>19.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="45">
@@ -916,13 +916,13 @@
         <v>39295.0</v>
       </c>
       <c r="B45" s="3">
-        <v>12.0</v>
+        <v>28.0</v>
       </c>
       <c r="C45" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="D45" s="3">
         <v>34.0</v>
-      </c>
-      <c r="D45" s="3">
-        <v>33.0</v>
       </c>
     </row>
     <row r="46">
@@ -930,13 +930,13 @@
         <v>39326.0</v>
       </c>
       <c r="B46" s="3">
-        <v>12.0</v>
+        <v>28.0</v>
       </c>
       <c r="C46" s="3">
-        <v>36.0</v>
+        <v>9.0</v>
       </c>
       <c r="D46" s="3">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="47">
@@ -944,13 +944,13 @@
         <v>39356.0</v>
       </c>
       <c r="B47" s="3">
-        <v>14.0</v>
+        <v>29.0</v>
       </c>
       <c r="C47" s="3">
-        <v>30.0</v>
+        <v>11.0</v>
       </c>
       <c r="D47" s="3">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="48">
@@ -958,13 +958,13 @@
         <v>39387.0</v>
       </c>
       <c r="B48" s="3">
-        <v>10.0</v>
+        <v>31.0</v>
       </c>
       <c r="C48" s="3">
-        <v>30.0</v>
+        <v>7.0</v>
       </c>
       <c r="D48" s="3">
-        <v>34.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="49">
@@ -972,13 +972,13 @@
         <v>39417.0</v>
       </c>
       <c r="B49" s="3">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="C49" s="3">
-        <v>23.0</v>
+        <v>9.0</v>
       </c>
       <c r="D49" s="3">
-        <v>19.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="50">
@@ -986,13 +986,13 @@
         <v>39448.0</v>
       </c>
       <c r="B50" s="3">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="C50" s="3">
-        <v>18.0</v>
+        <v>12.0</v>
       </c>
       <c r="D50" s="3">
-        <v>19.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="51">
@@ -1000,13 +1000,13 @@
         <v>39479.0</v>
       </c>
       <c r="B51" s="3">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="C51" s="3">
-        <v>21.0</v>
+        <v>11.0</v>
       </c>
       <c r="D51" s="3">
-        <v>20.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="52">
@@ -1014,13 +1014,13 @@
         <v>39508.0</v>
       </c>
       <c r="B52" s="3">
-        <v>15.0</v>
+        <v>24.0</v>
       </c>
       <c r="C52" s="3">
-        <v>26.0</v>
+        <v>11.0</v>
       </c>
       <c r="D52" s="3">
-        <v>27.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="53">
@@ -1028,13 +1028,13 @@
         <v>39539.0</v>
       </c>
       <c r="B53" s="3">
-        <v>15.0</v>
+        <v>31.0</v>
       </c>
       <c r="C53" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="D53" s="3">
         <v>37.0</v>
-      </c>
-      <c r="D53" s="3">
-        <v>35.0</v>
       </c>
     </row>
     <row r="54">
@@ -1042,13 +1042,13 @@
         <v>39569.0</v>
       </c>
       <c r="B54" s="3">
-        <v>16.0</v>
+        <v>33.0</v>
       </c>
       <c r="C54" s="3">
-        <v>32.0</v>
+        <v>12.0</v>
       </c>
       <c r="D54" s="3">
-        <v>35.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="55">
@@ -1056,10 +1056,10 @@
         <v>39600.0</v>
       </c>
       <c r="B55" s="3">
-        <v>17.0</v>
+        <v>43.0</v>
       </c>
       <c r="C55" s="3">
-        <v>40.0</v>
+        <v>12.0</v>
       </c>
       <c r="D55" s="3">
         <v>45.0</v>
@@ -1070,13 +1070,13 @@
         <v>39630.0</v>
       </c>
       <c r="B56" s="3">
-        <v>19.0</v>
+        <v>29.0</v>
       </c>
       <c r="C56" s="3">
-        <v>31.0</v>
+        <v>13.0</v>
       </c>
       <c r="D56" s="3">
-        <v>32.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="57">
@@ -1084,13 +1084,13 @@
         <v>39661.0</v>
       </c>
       <c r="B57" s="3">
-        <v>17.0</v>
+        <v>29.0</v>
       </c>
       <c r="C57" s="3">
-        <v>32.0</v>
+        <v>12.0</v>
       </c>
       <c r="D57" s="3">
-        <v>31.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="58">
@@ -1098,13 +1098,13 @@
         <v>39692.0</v>
       </c>
       <c r="B58" s="3">
-        <v>15.0</v>
+        <v>33.0</v>
       </c>
       <c r="C58" s="3">
-        <v>33.0</v>
+        <v>12.0</v>
       </c>
       <c r="D58" s="3">
-        <v>35.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="59">
@@ -1112,13 +1112,13 @@
         <v>39722.0</v>
       </c>
       <c r="B59" s="3">
-        <v>15.0</v>
+        <v>27.0</v>
       </c>
       <c r="C59" s="3">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
       <c r="D59" s="3">
-        <v>29.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="60">
@@ -1126,13 +1126,13 @@
         <v>39753.0</v>
       </c>
       <c r="B60" s="3">
-        <v>14.0</v>
+        <v>31.0</v>
       </c>
       <c r="C60" s="3">
-        <v>25.0</v>
+        <v>10.0</v>
       </c>
       <c r="D60" s="3">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="61">
@@ -1140,13 +1140,13 @@
         <v>39783.0</v>
       </c>
       <c r="B61" s="3">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
       <c r="C61" s="3">
-        <v>23.0</v>
+        <v>9.0</v>
       </c>
       <c r="D61" s="3">
-        <v>18.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="62">
@@ -1157,10 +1157,10 @@
         <v>18.0</v>
       </c>
       <c r="C62" s="3">
-        <v>27.0</v>
+        <v>13.0</v>
       </c>
       <c r="D62" s="3">
-        <v>21.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="63">
@@ -1168,13 +1168,13 @@
         <v>39845.0</v>
       </c>
       <c r="B63" s="3">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="C63" s="3">
-        <v>24.0</v>
+        <v>11.0</v>
       </c>
       <c r="D63" s="3">
-        <v>18.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="64">
@@ -1182,13 +1182,13 @@
         <v>39873.0</v>
       </c>
       <c r="B64" s="3">
-        <v>16.0</v>
+        <v>22.0</v>
       </c>
       <c r="C64" s="3">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="D64" s="3">
-        <v>25.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="65">
@@ -1196,13 +1196,13 @@
         <v>39904.0</v>
       </c>
       <c r="B65" s="3">
-        <v>13.0</v>
+        <v>21.0</v>
       </c>
       <c r="C65" s="3">
-        <v>33.0</v>
+        <v>10.0</v>
       </c>
       <c r="D65" s="3">
-        <v>26.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="66">
@@ -1210,13 +1210,13 @@
         <v>39934.0</v>
       </c>
       <c r="B66" s="3">
-        <v>14.0</v>
+        <v>22.0</v>
       </c>
       <c r="C66" s="3">
-        <v>34.0</v>
+        <v>10.0</v>
       </c>
       <c r="D66" s="3">
-        <v>26.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="67">
@@ -1224,13 +1224,13 @@
         <v>39965.0</v>
       </c>
       <c r="B67" s="3">
-        <v>14.0</v>
+        <v>23.0</v>
       </c>
       <c r="C67" s="3">
-        <v>34.0</v>
+        <v>10.0</v>
       </c>
       <c r="D67" s="3">
-        <v>26.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="68">
@@ -1238,13 +1238,13 @@
         <v>39995.0</v>
       </c>
       <c r="B68" s="3">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
       <c r="C68" s="3">
-        <v>29.0</v>
+        <v>8.0</v>
       </c>
       <c r="D68" s="3">
-        <v>15.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="69">
@@ -1252,13 +1252,13 @@
         <v>40026.0</v>
       </c>
       <c r="B69" s="3">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="C69" s="3">
-        <v>26.0</v>
+        <v>8.0</v>
       </c>
       <c r="D69" s="3">
-        <v>17.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="70">
@@ -1266,13 +1266,13 @@
         <v>40057.0</v>
       </c>
       <c r="B70" s="3">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="C70" s="3">
-        <v>29.0</v>
+        <v>11.0</v>
       </c>
       <c r="D70" s="3">
-        <v>23.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="71">
@@ -1280,13 +1280,13 @@
         <v>40087.0</v>
       </c>
       <c r="B71" s="3">
-        <v>13.0</v>
+        <v>21.0</v>
       </c>
       <c r="C71" s="3">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
       <c r="D71" s="3">
-        <v>23.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="72">
@@ -1294,13 +1294,13 @@
         <v>40118.0</v>
       </c>
       <c r="B72" s="3">
-        <v>13.0</v>
+        <v>22.0</v>
       </c>
       <c r="C72" s="3">
-        <v>25.0</v>
+        <v>9.0</v>
       </c>
       <c r="D72" s="3">
-        <v>25.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="73">
@@ -1308,13 +1308,13 @@
         <v>40148.0</v>
       </c>
       <c r="B73" s="3">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
       <c r="C73" s="3">
-        <v>22.0</v>
+        <v>9.0</v>
       </c>
       <c r="D73" s="3">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="74">
@@ -1322,13 +1322,13 @@
         <v>40179.0</v>
       </c>
       <c r="B74" s="3">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="C74" s="3">
-        <v>20.0</v>
+        <v>12.0</v>
       </c>
       <c r="D74" s="3">
-        <v>16.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="75">
@@ -1336,13 +1336,13 @@
         <v>40210.0</v>
       </c>
       <c r="B75" s="3">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C75" s="3">
-        <v>23.0</v>
+        <v>10.0</v>
       </c>
       <c r="D75" s="3">
-        <v>16.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="76">
@@ -1350,13 +1350,13 @@
         <v>40238.0</v>
       </c>
       <c r="B76" s="3">
-        <v>14.0</v>
+        <v>18.0</v>
       </c>
       <c r="C76" s="3">
-        <v>26.0</v>
+        <v>10.0</v>
       </c>
       <c r="D76" s="3">
-        <v>22.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="77">
@@ -1364,13 +1364,13 @@
         <v>40269.0</v>
       </c>
       <c r="B77" s="3">
-        <v>14.0</v>
+        <v>21.0</v>
       </c>
       <c r="C77" s="3">
-        <v>32.0</v>
+        <v>10.0</v>
       </c>
       <c r="D77" s="3">
-        <v>24.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="78">
@@ -1378,13 +1378,13 @@
         <v>40299.0</v>
       </c>
       <c r="B78" s="3">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
       <c r="C78" s="3">
-        <v>33.0</v>
+        <v>11.0</v>
       </c>
       <c r="D78" s="3">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="79">
@@ -1392,13 +1392,13 @@
         <v>40330.0</v>
       </c>
       <c r="B79" s="3">
-        <v>13.0</v>
+        <v>20.0</v>
       </c>
       <c r="C79" s="3">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
       <c r="D79" s="3">
-        <v>23.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="80">
@@ -1406,13 +1406,13 @@
         <v>40360.0</v>
       </c>
       <c r="B80" s="3">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C80" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="D80" s="3">
         <v>28.0</v>
-      </c>
-      <c r="D80" s="3">
-        <v>14.0</v>
       </c>
     </row>
     <row r="81">
@@ -1423,10 +1423,10 @@
         <v>16.0</v>
       </c>
       <c r="C81" s="3">
-        <v>27.0</v>
+        <v>12.0</v>
       </c>
       <c r="D81" s="3">
-        <v>19.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="82">
@@ -1434,13 +1434,13 @@
         <v>40422.0</v>
       </c>
       <c r="B82" s="3">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="C82" s="3">
-        <v>25.0</v>
+        <v>11.0</v>
       </c>
       <c r="D82" s="3">
-        <v>22.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="83">
@@ -1448,13 +1448,13 @@
         <v>40452.0</v>
       </c>
       <c r="B83" s="3">
-        <v>13.0</v>
+        <v>22.0</v>
       </c>
       <c r="C83" s="3">
-        <v>24.0</v>
+        <v>9.0</v>
       </c>
       <c r="D83" s="3">
-        <v>26.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="84">
@@ -1462,10 +1462,10 @@
         <v>40483.0</v>
       </c>
       <c r="B84" s="3">
-        <v>15.0</v>
+        <v>27.0</v>
       </c>
       <c r="C84" s="3">
-        <v>25.0</v>
+        <v>11.0</v>
       </c>
       <c r="D84" s="3">
         <v>31.0</v>
@@ -1476,13 +1476,13 @@
         <v>40513.0</v>
       </c>
       <c r="B85" s="3">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="C85" s="3">
-        <v>21.0</v>
+        <v>10.0</v>
       </c>
       <c r="D85" s="3">
-        <v>20.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="86">
@@ -1490,13 +1490,13 @@
         <v>40544.0</v>
       </c>
       <c r="B86" s="3">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="C86" s="3">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
       <c r="D86" s="3">
-        <v>16.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="87">
@@ -1504,13 +1504,13 @@
         <v>40575.0</v>
       </c>
       <c r="B87" s="3">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="C87" s="3">
-        <v>21.0</v>
+        <v>9.0</v>
       </c>
       <c r="D87" s="3">
-        <v>19.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="88">
@@ -1518,13 +1518,13 @@
         <v>40603.0</v>
       </c>
       <c r="B88" s="3">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
       <c r="C88" s="3">
-        <v>21.0</v>
+        <v>8.0</v>
       </c>
       <c r="D88" s="3">
-        <v>21.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="89">
@@ -1532,13 +1532,13 @@
         <v>40634.0</v>
       </c>
       <c r="B89" s="3">
-        <v>11.0</v>
+        <v>24.0</v>
       </c>
       <c r="C89" s="3">
-        <v>23.0</v>
+        <v>8.0</v>
       </c>
       <c r="D89" s="3">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="90">
@@ -1546,13 +1546,13 @@
         <v>40664.0</v>
       </c>
       <c r="B90" s="3">
-        <v>14.0</v>
+        <v>30.0</v>
       </c>
       <c r="C90" s="3">
-        <v>22.0</v>
+        <v>10.0</v>
       </c>
       <c r="D90" s="3">
-        <v>34.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="91">
@@ -1560,13 +1560,13 @@
         <v>40695.0</v>
       </c>
       <c r="B91" s="3">
-        <v>10.0</v>
+        <v>24.0</v>
       </c>
       <c r="C91" s="3">
-        <v>24.0</v>
+        <v>8.0</v>
       </c>
       <c r="D91" s="3">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="92">
@@ -1574,13 +1574,13 @@
         <v>40725.0</v>
       </c>
       <c r="B92" s="3">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="C92" s="3">
-        <v>22.0</v>
+        <v>8.0</v>
       </c>
       <c r="D92" s="3">
-        <v>14.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="93">
@@ -1588,13 +1588,13 @@
         <v>40756.0</v>
       </c>
       <c r="B93" s="3">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="C93" s="3">
-        <v>22.0</v>
+        <v>8.0</v>
       </c>
       <c r="D93" s="3">
-        <v>18.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="94">
@@ -1602,13 +1602,13 @@
         <v>40787.0</v>
       </c>
       <c r="B94" s="3">
-        <v>11.0</v>
+        <v>19.0</v>
       </c>
       <c r="C94" s="3">
-        <v>25.0</v>
+        <v>8.0</v>
       </c>
       <c r="D94" s="3">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="95">
@@ -1616,13 +1616,13 @@
         <v>40817.0</v>
       </c>
       <c r="B95" s="3">
-        <v>10.0</v>
+        <v>19.0</v>
       </c>
       <c r="C95" s="3">
-        <v>24.0</v>
+        <v>7.0</v>
       </c>
       <c r="D95" s="3">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="96">
@@ -1630,13 +1630,13 @@
         <v>40848.0</v>
       </c>
       <c r="B96" s="3">
-        <v>12.0</v>
+        <v>21.0</v>
       </c>
       <c r="C96" s="3">
-        <v>24.0</v>
+        <v>9.0</v>
       </c>
       <c r="D96" s="3">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="97">
@@ -1644,13 +1644,13 @@
         <v>40878.0</v>
       </c>
       <c r="B97" s="3">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
       <c r="C97" s="3">
-        <v>19.0</v>
+        <v>8.0</v>
       </c>
       <c r="D97" s="3">
-        <v>16.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="98">
@@ -1658,13 +1658,13 @@
         <v>40909.0</v>
       </c>
       <c r="B98" s="3">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C98" s="3">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
       <c r="D98" s="3">
-        <v>16.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="99">
@@ -1672,13 +1672,13 @@
         <v>40940.0</v>
       </c>
       <c r="B99" s="3">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="C99" s="3">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
       <c r="D99" s="3">
-        <v>13.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="100">
@@ -1686,13 +1686,13 @@
         <v>40969.0</v>
       </c>
       <c r="B100" s="3">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="C100" s="3">
-        <v>27.0</v>
+        <v>9.0</v>
       </c>
       <c r="D100" s="3">
-        <v>18.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="101">
@@ -1700,13 +1700,13 @@
         <v>41000.0</v>
       </c>
       <c r="B101" s="3">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="C101" s="3">
-        <v>25.0</v>
+        <v>8.0</v>
       </c>
       <c r="D101" s="3">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="102">
@@ -1714,13 +1714,13 @@
         <v>41030.0</v>
       </c>
       <c r="B102" s="3">
-        <v>12.0</v>
+        <v>19.0</v>
       </c>
       <c r="C102" s="3">
-        <v>34.0</v>
+        <v>9.0</v>
       </c>
       <c r="D102" s="3">
-        <v>22.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="103">
@@ -1728,13 +1728,13 @@
         <v>41061.0</v>
       </c>
       <c r="B103" s="3">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="C103" s="3">
-        <v>22.0</v>
+        <v>8.0</v>
       </c>
       <c r="D103" s="3">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="104">
@@ -1742,13 +1742,13 @@
         <v>41091.0</v>
       </c>
       <c r="B104" s="3">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C104" s="3">
-        <v>21.0</v>
+        <v>7.0</v>
       </c>
       <c r="D104" s="3">
-        <v>11.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="105">
@@ -1756,13 +1756,13 @@
         <v>41122.0</v>
       </c>
       <c r="B105" s="3">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
       <c r="C105" s="3">
-        <v>21.0</v>
+        <v>8.0</v>
       </c>
       <c r="D105" s="3">
-        <v>16.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="106">
@@ -1770,13 +1770,13 @@
         <v>41153.0</v>
       </c>
       <c r="B106" s="3">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="C106" s="3">
-        <v>21.0</v>
+        <v>7.0</v>
       </c>
       <c r="D106" s="3">
-        <v>16.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="107">
@@ -1784,13 +1784,13 @@
         <v>41183.0</v>
       </c>
       <c r="B107" s="3">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="C107" s="3">
-        <v>19.0</v>
+        <v>7.0</v>
       </c>
       <c r="D107" s="3">
-        <v>17.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="108">
@@ -1798,13 +1798,13 @@
         <v>41214.0</v>
       </c>
       <c r="B108" s="3">
-        <v>9.0</v>
+        <v>18.0</v>
       </c>
       <c r="C108" s="3">
-        <v>18.0</v>
+        <v>7.0</v>
       </c>
       <c r="D108" s="3">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="109">
@@ -1812,13 +1812,13 @@
         <v>41244.0</v>
       </c>
       <c r="B109" s="3">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="C109" s="3">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="D109" s="3">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="110">
@@ -1826,13 +1826,13 @@
         <v>41275.0</v>
       </c>
       <c r="B110" s="3">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C110" s="3">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
       <c r="D110" s="3">
-        <v>15.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="111">
@@ -1840,13 +1840,13 @@
         <v>41306.0</v>
       </c>
       <c r="B111" s="3">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
       <c r="C111" s="3">
-        <v>17.0</v>
+        <v>8.0</v>
       </c>
       <c r="D111" s="3">
-        <v>17.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="112">
@@ -1854,13 +1854,13 @@
         <v>41334.0</v>
       </c>
       <c r="B112" s="3">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="C112" s="3">
-        <v>18.0</v>
+        <v>8.0</v>
       </c>
       <c r="D112" s="3">
-        <v>18.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="113">
@@ -1868,13 +1868,13 @@
         <v>41365.0</v>
       </c>
       <c r="B113" s="3">
-        <v>12.0</v>
+        <v>24.0</v>
       </c>
       <c r="C113" s="3">
-        <v>24.0</v>
+        <v>9.0</v>
       </c>
       <c r="D113" s="3">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="114">
@@ -1882,10 +1882,10 @@
         <v>41395.0</v>
       </c>
       <c r="B114" s="3">
-        <v>12.0</v>
+        <v>22.0</v>
       </c>
       <c r="C114" s="3">
-        <v>22.0</v>
+        <v>9.0</v>
       </c>
       <c r="D114" s="3">
         <v>24.0</v>
@@ -1896,13 +1896,13 @@
         <v>41426.0</v>
       </c>
       <c r="B115" s="3">
-        <v>11.0</v>
+        <v>26.0</v>
       </c>
       <c r="C115" s="3">
-        <v>22.0</v>
+        <v>8.0</v>
       </c>
       <c r="D115" s="3">
-        <v>29.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="116">
@@ -1910,13 +1910,13 @@
         <v>41456.0</v>
       </c>
       <c r="B116" s="3">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="C116" s="3">
-        <v>22.0</v>
+        <v>8.0</v>
       </c>
       <c r="D116" s="3">
-        <v>15.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="117">
@@ -1924,13 +1924,13 @@
         <v>41487.0</v>
       </c>
       <c r="B117" s="3">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="C117" s="3">
-        <v>22.0</v>
+        <v>9.0</v>
       </c>
       <c r="D117" s="3">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="118">
@@ -1938,13 +1938,13 @@
         <v>41518.0</v>
       </c>
       <c r="B118" s="3">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="C118" s="3">
-        <v>21.0</v>
+        <v>8.0</v>
       </c>
       <c r="D118" s="3">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="119">
@@ -1952,13 +1952,13 @@
         <v>41548.0</v>
       </c>
       <c r="B119" s="3">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
       <c r="C119" s="3">
-        <v>22.0</v>
+        <v>8.0</v>
       </c>
       <c r="D119" s="3">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="120">
@@ -1966,10 +1966,10 @@
         <v>41579.0</v>
       </c>
       <c r="B120" s="3">
-        <v>10.0</v>
+        <v>19.0</v>
       </c>
       <c r="C120" s="3">
-        <v>21.0</v>
+        <v>7.0</v>
       </c>
       <c r="D120" s="3">
         <v>21.0</v>
@@ -1980,13 +1980,13 @@
         <v>41609.0</v>
       </c>
       <c r="B121" s="3">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="C121" s="3">
-        <v>18.0</v>
+        <v>6.0</v>
       </c>
       <c r="D121" s="3">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="122">
@@ -1994,13 +1994,13 @@
         <v>41640.0</v>
       </c>
       <c r="B122" s="3">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="C122" s="3">
-        <v>23.0</v>
+        <v>11.0</v>
       </c>
       <c r="D122" s="3">
-        <v>18.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="123">
@@ -2008,13 +2008,13 @@
         <v>41671.0</v>
       </c>
       <c r="B123" s="3">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="C123" s="3">
-        <v>25.0</v>
+        <v>9.0</v>
       </c>
       <c r="D123" s="3">
-        <v>18.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="124">
@@ -2022,13 +2022,13 @@
         <v>41699.0</v>
       </c>
       <c r="B124" s="3">
-        <v>11.0</v>
+        <v>18.0</v>
       </c>
       <c r="C124" s="3">
-        <v>21.0</v>
+        <v>8.0</v>
       </c>
       <c r="D124" s="3">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="125">
@@ -2036,13 +2036,13 @@
         <v>41730.0</v>
       </c>
       <c r="B125" s="3">
-        <v>13.0</v>
+        <v>20.0</v>
       </c>
       <c r="C125" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="D125" s="3">
         <v>22.0</v>
-      </c>
-      <c r="D125" s="3">
-        <v>23.0</v>
       </c>
     </row>
     <row r="126">
@@ -2050,13 +2050,13 @@
         <v>41760.0</v>
       </c>
       <c r="B126" s="3">
-        <v>12.0</v>
+        <v>24.0</v>
       </c>
       <c r="C126" s="3">
-        <v>21.0</v>
+        <v>9.0</v>
       </c>
       <c r="D126" s="3">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="127">
@@ -2064,13 +2064,13 @@
         <v>41791.0</v>
       </c>
       <c r="B127" s="3">
-        <v>9.0</v>
+        <v>18.0</v>
       </c>
       <c r="C127" s="3">
-        <v>17.0</v>
+        <v>6.0</v>
       </c>
       <c r="D127" s="3">
-        <v>19.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="128">
@@ -2078,13 +2078,13 @@
         <v>41821.0</v>
       </c>
       <c r="B128" s="3">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="C128" s="3">
-        <v>18.0</v>
+        <v>8.0</v>
       </c>
       <c r="D128" s="3">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="129">
@@ -2092,13 +2092,13 @@
         <v>41852.0</v>
       </c>
       <c r="B129" s="3">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
       <c r="C129" s="3">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="D129" s="3">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="130">
@@ -2106,13 +2106,13 @@
         <v>41883.0</v>
       </c>
       <c r="B130" s="3">
-        <v>13.0</v>
+        <v>24.0</v>
       </c>
       <c r="C130" s="3">
-        <v>21.0</v>
+        <v>10.0</v>
       </c>
       <c r="D130" s="3">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="131">
@@ -2120,13 +2120,13 @@
         <v>41913.0</v>
       </c>
       <c r="B131" s="3">
-        <v>13.0</v>
+        <v>54.0</v>
       </c>
       <c r="C131" s="3">
-        <v>27.0</v>
+        <v>9.0</v>
       </c>
       <c r="D131" s="3">
-        <v>55.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="132">
@@ -2134,13 +2134,13 @@
         <v>41944.0</v>
       </c>
       <c r="B132" s="3">
-        <v>12.0</v>
+        <v>26.0</v>
       </c>
       <c r="C132" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="D132" s="3">
         <v>21.0</v>
-      </c>
-      <c r="D132" s="3">
-        <v>30.0</v>
       </c>
     </row>
     <row r="133">
@@ -2148,13 +2148,13 @@
         <v>41974.0</v>
       </c>
       <c r="B133" s="3">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="C133" s="3">
-        <v>21.0</v>
+        <v>8.0</v>
       </c>
       <c r="D133" s="3">
-        <v>17.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="134">
@@ -2162,13 +2162,13 @@
         <v>42005.0</v>
       </c>
       <c r="B134" s="3">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
       <c r="C134" s="3">
-        <v>24.0</v>
+        <v>11.0</v>
       </c>
       <c r="D134" s="3">
-        <v>21.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="135">
@@ -2176,13 +2176,13 @@
         <v>42036.0</v>
       </c>
       <c r="B135" s="3">
-        <v>16.0</v>
+        <v>24.0</v>
       </c>
       <c r="C135" s="3">
-        <v>26.0</v>
+        <v>12.0</v>
       </c>
       <c r="D135" s="3">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="136">
@@ -2190,13 +2190,13 @@
         <v>42064.0</v>
       </c>
       <c r="B136" s="3">
-        <v>18.0</v>
+        <v>28.0</v>
       </c>
       <c r="C136" s="3">
-        <v>31.0</v>
+        <v>13.0</v>
       </c>
       <c r="D136" s="3">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="137">
@@ -2204,13 +2204,13 @@
         <v>42095.0</v>
       </c>
       <c r="B137" s="3">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="C137" s="3">
-        <v>29.0</v>
+        <v>12.0</v>
       </c>
       <c r="D137" s="3">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="138">
@@ -2218,13 +2218,13 @@
         <v>42125.0</v>
       </c>
       <c r="B138" s="3">
-        <v>18.0</v>
+        <v>25.0</v>
       </c>
       <c r="C138" s="3">
-        <v>27.0</v>
+        <v>13.0</v>
       </c>
       <c r="D138" s="3">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="139">
@@ -2232,13 +2232,13 @@
         <v>42156.0</v>
       </c>
       <c r="B139" s="3">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
       <c r="C139" s="3">
-        <v>30.0</v>
+        <v>13.0</v>
       </c>
       <c r="D139" s="3">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="140">
@@ -2246,13 +2246,13 @@
         <v>42186.0</v>
       </c>
       <c r="B140" s="3">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="C140" s="3">
-        <v>29.0</v>
+        <v>13.0</v>
       </c>
       <c r="D140" s="3">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="141">
@@ -2260,13 +2260,13 @@
         <v>42217.0</v>
       </c>
       <c r="B141" s="3">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="C141" s="3">
-        <v>29.0</v>
+        <v>14.0</v>
       </c>
       <c r="D141" s="3">
-        <v>24.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="142">
@@ -2274,13 +2274,13 @@
         <v>42248.0</v>
       </c>
       <c r="B142" s="3">
-        <v>19.0</v>
+        <v>26.0</v>
       </c>
       <c r="C142" s="3">
-        <v>29.0</v>
+        <v>14.0</v>
       </c>
       <c r="D142" s="3">
-        <v>28.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="143">
@@ -2288,13 +2288,13 @@
         <v>42278.0</v>
       </c>
       <c r="B143" s="3">
-        <v>18.0</v>
+        <v>25.0</v>
       </c>
       <c r="C143" s="3">
-        <v>26.0</v>
+        <v>13.0</v>
       </c>
       <c r="D143" s="3">
-        <v>30.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="144">
@@ -2302,13 +2302,13 @@
         <v>42309.0</v>
       </c>
       <c r="B144" s="3">
-        <v>17.0</v>
+        <v>24.0</v>
       </c>
       <c r="C144" s="3">
-        <v>26.0</v>
+        <v>12.0</v>
       </c>
       <c r="D144" s="3">
-        <v>26.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="145">
@@ -2316,13 +2316,13 @@
         <v>42339.0</v>
       </c>
       <c r="B145" s="3">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="C145" s="3">
-        <v>25.0</v>
+        <v>13.0</v>
       </c>
       <c r="D145" s="3">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="146">
@@ -2330,13 +2330,13 @@
         <v>42370.0</v>
       </c>
       <c r="B146" s="3">
-        <v>18.0</v>
+        <v>22.0</v>
       </c>
       <c r="C146" s="3">
-        <v>24.0</v>
+        <v>13.0</v>
       </c>
       <c r="D146" s="3">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="147">
@@ -2344,13 +2344,13 @@
         <v>42401.0</v>
       </c>
       <c r="B147" s="3">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="C147" s="3">
-        <v>21.0</v>
+        <v>12.0</v>
       </c>
       <c r="D147" s="3">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="148">
@@ -2358,13 +2358,13 @@
         <v>42430.0</v>
       </c>
       <c r="B148" s="3">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="C148" s="3">
-        <v>22.0</v>
+        <v>12.0</v>
       </c>
       <c r="D148" s="3">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="149">
@@ -2372,13 +2372,13 @@
         <v>42461.0</v>
       </c>
       <c r="B149" s="3">
-        <v>16.0</v>
+        <v>23.0</v>
       </c>
       <c r="C149" s="3">
-        <v>22.0</v>
+        <v>11.0</v>
       </c>
       <c r="D149" s="3">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="150">
@@ -2386,13 +2386,13 @@
         <v>42491.0</v>
       </c>
       <c r="B150" s="3">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="C150" s="3">
-        <v>22.0</v>
+        <v>12.0</v>
       </c>
       <c r="D150" s="3">
-        <v>27.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="151">
@@ -2400,13 +2400,13 @@
         <v>42522.0</v>
       </c>
       <c r="B151" s="3">
-        <v>18.0</v>
+        <v>24.0</v>
       </c>
       <c r="C151" s="3">
-        <v>22.0</v>
+        <v>13.0</v>
       </c>
       <c r="D151" s="3">
-        <v>27.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="152">
@@ -2417,10 +2417,10 @@
         <v>16.0</v>
       </c>
       <c r="C152" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="D152" s="3">
         <v>19.0</v>
-      </c>
-      <c r="D152" s="3">
-        <v>17.0</v>
       </c>
     </row>
     <row r="153">
@@ -2431,10 +2431,10 @@
         <v>17.0</v>
       </c>
       <c r="C153" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="D153" s="3">
         <v>20.0</v>
-      </c>
-      <c r="D153" s="3">
-        <v>19.0</v>
       </c>
     </row>
     <row r="154">
@@ -2442,13 +2442,13 @@
         <v>42614.0</v>
       </c>
       <c r="B154" s="3">
+        <v>21.0</v>
+      </c>
+      <c r="C154" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="D154" s="3">
         <v>17.0</v>
-      </c>
-      <c r="C154" s="3">
-        <v>23.0</v>
-      </c>
-      <c r="D154" s="3">
-        <v>24.0</v>
       </c>
     </row>
     <row r="155">
@@ -2456,13 +2456,13 @@
         <v>42644.0</v>
       </c>
       <c r="B155" s="3">
-        <v>19.0</v>
+        <v>24.0</v>
       </c>
       <c r="C155" s="3">
-        <v>27.0</v>
+        <v>14.0</v>
       </c>
       <c r="D155" s="3">
-        <v>27.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="156">
@@ -2470,13 +2470,13 @@
         <v>42675.0</v>
       </c>
       <c r="B156" s="3">
-        <v>19.0</v>
+        <v>25.0</v>
       </c>
       <c r="C156" s="3">
-        <v>26.0</v>
+        <v>14.0</v>
       </c>
       <c r="D156" s="3">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="157">
@@ -2484,13 +2484,13 @@
         <v>42705.0</v>
       </c>
       <c r="B157" s="3">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="C157" s="3">
-        <v>26.0</v>
+        <v>14.0</v>
       </c>
       <c r="D157" s="3">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="158">
@@ -2498,13 +2498,13 @@
         <v>42736.0</v>
       </c>
       <c r="B158" s="3">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="C158" s="3">
-        <v>33.0</v>
+        <v>17.0</v>
       </c>
       <c r="D158" s="3">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="159">
@@ -2512,13 +2512,13 @@
         <v>42767.0</v>
       </c>
       <c r="B159" s="3">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="C159" s="3">
-        <v>32.0</v>
+        <v>15.0</v>
       </c>
       <c r="D159" s="3">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="160">
@@ -2526,13 +2526,13 @@
         <v>42795.0</v>
       </c>
       <c r="B160" s="3">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
       <c r="C160" s="3">
-        <v>37.0</v>
+        <v>15.0</v>
       </c>
       <c r="D160" s="3">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="161">
@@ -2540,13 +2540,13 @@
         <v>42826.0</v>
       </c>
       <c r="B161" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="C161" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="D161" s="3">
         <v>17.0</v>
-      </c>
-      <c r="C161" s="3">
-        <v>31.0</v>
-      </c>
-      <c r="D161" s="3">
-        <v>23.0</v>
       </c>
     </row>
     <row r="162">
@@ -2554,13 +2554,13 @@
         <v>42856.0</v>
       </c>
       <c r="B162" s="3">
+        <v>26.0</v>
+      </c>
+      <c r="C162" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="D162" s="3">
         <v>20.0</v>
-      </c>
-      <c r="C162" s="3">
-        <v>35.0</v>
-      </c>
-      <c r="D162" s="3">
-        <v>26.0</v>
       </c>
     </row>
     <row r="163">
@@ -2568,13 +2568,13 @@
         <v>42887.0</v>
       </c>
       <c r="B163" s="3">
-        <v>18.0</v>
+        <v>25.0</v>
       </c>
       <c r="C163" s="3">
-        <v>32.0</v>
+        <v>13.0</v>
       </c>
       <c r="D163" s="3">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="164">
@@ -2585,10 +2585,10 @@
         <v>19.0</v>
       </c>
       <c r="C164" s="3">
-        <v>32.0</v>
+        <v>14.0</v>
       </c>
       <c r="D164" s="3">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="165">
@@ -2596,13 +2596,13 @@
         <v>42948.0</v>
       </c>
       <c r="B165" s="3">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="C165" s="3">
-        <v>33.0</v>
+        <v>15.0</v>
       </c>
       <c r="D165" s="3">
-        <v>23.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="166">
@@ -2610,13 +2610,13 @@
         <v>42979.0</v>
       </c>
       <c r="B166" s="3">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="C166" s="3">
-        <v>36.0</v>
+        <v>15.0</v>
       </c>
       <c r="D166" s="3">
-        <v>25.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="167">
@@ -2624,13 +2624,13 @@
         <v>43009.0</v>
       </c>
       <c r="B167" s="3">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="C167" s="3">
-        <v>33.0</v>
+        <v>14.0</v>
       </c>
       <c r="D167" s="3">
-        <v>21.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="168">
@@ -2638,13 +2638,13 @@
         <v>43040.0</v>
       </c>
       <c r="B168" s="3">
-        <v>18.0</v>
+        <v>24.0</v>
       </c>
       <c r="C168" s="3">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
       <c r="D168" s="3">
-        <v>25.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="169">
@@ -2652,13 +2652,13 @@
         <v>43070.0</v>
       </c>
       <c r="B169" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="C169" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="D169" s="3">
         <v>18.0</v>
-      </c>
-      <c r="C169" s="3">
-        <v>33.0</v>
-      </c>
-      <c r="D169" s="3">
-        <v>21.0</v>
       </c>
     </row>
     <row r="170">
@@ -2666,13 +2666,13 @@
         <v>43101.0</v>
       </c>
       <c r="B170" s="3">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="C170" s="3">
-        <v>32.0</v>
+        <v>17.0</v>
       </c>
       <c r="D170" s="3">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="171">
@@ -2680,13 +2680,13 @@
         <v>43132.0</v>
       </c>
       <c r="B171" s="3">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="C171" s="3">
-        <v>33.0</v>
+        <v>14.0</v>
       </c>
       <c r="D171" s="3">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="172">
@@ -2694,13 +2694,13 @@
         <v>43160.0</v>
       </c>
       <c r="B172" s="3">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="C172" s="3">
-        <v>31.0</v>
+        <v>14.0</v>
       </c>
       <c r="D172" s="3">
-        <v>20.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="173">
@@ -2708,13 +2708,13 @@
         <v>43191.0</v>
       </c>
       <c r="B173" s="3">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
       <c r="C173" s="3">
-        <v>31.0</v>
+        <v>13.0</v>
       </c>
       <c r="D173" s="3">
-        <v>22.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="174">
@@ -2722,13 +2722,13 @@
         <v>43221.0</v>
       </c>
       <c r="B174" s="3">
-        <v>20.0</v>
+        <v>27.0</v>
       </c>
       <c r="C174" s="3">
-        <v>32.0</v>
+        <v>14.0</v>
       </c>
       <c r="D174" s="3">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="175">
@@ -2736,13 +2736,13 @@
         <v>43252.0</v>
       </c>
       <c r="B175" s="3">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
       <c r="C175" s="3">
-        <v>29.0</v>
+        <v>14.0</v>
       </c>
       <c r="D175" s="3">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="176">
@@ -2750,13 +2750,13 @@
         <v>43282.0</v>
       </c>
       <c r="B176" s="3">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="C176" s="3">
-        <v>31.0</v>
+        <v>14.0</v>
       </c>
       <c r="D176" s="3">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="177">
@@ -2767,10 +2767,10 @@
         <v>22.0</v>
       </c>
       <c r="C177" s="3">
-        <v>31.0</v>
+        <v>17.0</v>
       </c>
       <c r="D177" s="3">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="178">
@@ -2778,13 +2778,13 @@
         <v>43344.0</v>
       </c>
       <c r="B178" s="3">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="C178" s="3">
-        <v>34.0</v>
+        <v>17.0</v>
       </c>
       <c r="D178" s="3">
-        <v>25.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="179">
@@ -2792,13 +2792,13 @@
         <v>43374.0</v>
       </c>
       <c r="B179" s="3">
-        <v>20.0</v>
+        <v>27.0</v>
       </c>
       <c r="C179" s="3">
-        <v>30.0</v>
+        <v>15.0</v>
       </c>
       <c r="D179" s="3">
-        <v>28.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="180">
@@ -2806,13 +2806,13 @@
         <v>43405.0</v>
       </c>
       <c r="B180" s="3">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="C180" s="3">
-        <v>29.0</v>
+        <v>15.0</v>
       </c>
       <c r="D180" s="3">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="181">
@@ -2820,13 +2820,13 @@
         <v>43435.0</v>
       </c>
       <c r="B181" s="3">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="C181" s="3">
-        <v>32.0</v>
+        <v>15.0</v>
       </c>
       <c r="D181" s="3">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="182">
@@ -2834,13 +2834,13 @@
         <v>43466.0</v>
       </c>
       <c r="B182" s="3">
-        <v>29.0</v>
+        <v>23.0</v>
       </c>
       <c r="C182" s="3">
-        <v>42.0</v>
+        <v>20.0</v>
       </c>
       <c r="D182" s="3">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="183">
@@ -2851,10 +2851,10 @@
         <v>24.0</v>
       </c>
       <c r="C183" s="3">
-        <v>38.0</v>
+        <v>17.0</v>
       </c>
       <c r="D183" s="3">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="184">
@@ -2862,13 +2862,13 @@
         <v>43525.0</v>
       </c>
       <c r="B184" s="3">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="C184" s="3">
-        <v>36.0</v>
+        <v>16.0</v>
       </c>
       <c r="D184" s="3">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="185">
@@ -2879,10 +2879,10 @@
         <v>24.0</v>
       </c>
       <c r="C185" s="3">
-        <v>38.0</v>
+        <v>17.0</v>
       </c>
       <c r="D185" s="3">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="186">
@@ -2893,10 +2893,10 @@
         <v>26.0</v>
       </c>
       <c r="C186" s="3">
-        <v>37.0</v>
+        <v>19.0</v>
       </c>
       <c r="D186" s="3">
-        <v>27.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="187">
@@ -2904,13 +2904,13 @@
         <v>43617.0</v>
       </c>
       <c r="B187" s="3">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="C187" s="3">
-        <v>34.0</v>
+        <v>17.0</v>
       </c>
       <c r="D187" s="3">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="188">
@@ -2918,10 +2918,10 @@
         <v>43647.0</v>
       </c>
       <c r="B188" s="3">
-        <v>24.0</v>
+        <v>21.0</v>
       </c>
       <c r="C188" s="3">
-        <v>43.0</v>
+        <v>17.0</v>
       </c>
       <c r="D188" s="3">
         <v>19.0</v>
@@ -2932,13 +2932,13 @@
         <v>43678.0</v>
       </c>
       <c r="B189" s="3">
-        <v>31.0</v>
+        <v>22.0</v>
       </c>
       <c r="C189" s="3">
-        <v>48.0</v>
+        <v>23.0</v>
       </c>
       <c r="D189" s="3">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="190">
@@ -2946,13 +2946,13 @@
         <v>43709.0</v>
       </c>
       <c r="B190" s="3">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="C190" s="3">
-        <v>49.0</v>
+        <v>20.0</v>
       </c>
       <c r="D190" s="3">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="191">
@@ -2960,13 +2960,13 @@
         <v>43739.0</v>
       </c>
       <c r="B191" s="3">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="C191" s="3">
-        <v>47.0</v>
+        <v>21.0</v>
       </c>
       <c r="D191" s="3">
-        <v>24.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="192">
@@ -2974,13 +2974,13 @@
         <v>43770.0</v>
       </c>
       <c r="B192" s="3">
-        <v>24.0</v>
+        <v>28.0</v>
       </c>
       <c r="C192" s="3">
-        <v>39.0</v>
+        <v>17.0</v>
       </c>
       <c r="D192" s="3">
-        <v>29.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="193">
@@ -2988,13 +2988,13 @@
         <v>43800.0</v>
       </c>
       <c r="B193" s="3">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="C193" s="3">
-        <v>42.0</v>
+        <v>18.0</v>
       </c>
       <c r="D193" s="3">
-        <v>22.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="194">
@@ -3002,13 +3002,13 @@
         <v>43831.0</v>
       </c>
       <c r="B194" s="3">
-        <v>30.0</v>
+        <v>21.0</v>
       </c>
       <c r="C194" s="3">
-        <v>35.0</v>
+        <v>21.0</v>
       </c>
       <c r="D194" s="3">
-        <v>24.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="195">
@@ -3016,13 +3016,13 @@
         <v>43862.0</v>
       </c>
       <c r="B195" s="3">
-        <v>26.0</v>
+        <v>20.0</v>
       </c>
       <c r="C195" s="3">
-        <v>42.0</v>
+        <v>20.0</v>
       </c>
       <c r="D195" s="3">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="196">
@@ -3030,13 +3030,13 @@
         <v>43891.0</v>
       </c>
       <c r="B196" s="3">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="C196" s="3">
-        <v>46.0</v>
+        <v>17.0</v>
       </c>
       <c r="D196" s="3">
-        <v>20.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="197">
@@ -3047,10 +3047,10 @@
         <v>18.0</v>
       </c>
       <c r="C197" s="3">
-        <v>36.0</v>
+        <v>14.0</v>
       </c>
       <c r="D197" s="3">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="198">
@@ -3058,13 +3058,13 @@
         <v>43952.0</v>
       </c>
       <c r="B198" s="3">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="C198" s="3">
-        <v>49.0</v>
+        <v>16.0</v>
       </c>
       <c r="D198" s="3">
-        <v>20.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="199">
@@ -3072,13 +3072,13 @@
         <v>43983.0</v>
       </c>
       <c r="B199" s="3">
-        <v>23.0</v>
+        <v>19.0</v>
       </c>
       <c r="C199" s="3">
-        <v>61.0</v>
+        <v>17.0</v>
       </c>
       <c r="D199" s="3">
-        <v>19.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="200">
@@ -3086,13 +3086,13 @@
         <v>44013.0</v>
       </c>
       <c r="B200" s="3">
-        <v>24.0</v>
+        <v>19.0</v>
       </c>
       <c r="C200" s="3">
-        <v>55.0</v>
+        <v>18.0</v>
       </c>
       <c r="D200" s="3">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="201">
@@ -3100,13 +3100,13 @@
         <v>44044.0</v>
       </c>
       <c r="B201" s="3">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="C201" s="3">
-        <v>47.0</v>
+        <v>16.0</v>
       </c>
       <c r="D201" s="3">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="202">
@@ -3114,13 +3114,13 @@
         <v>44075.0</v>
       </c>
       <c r="B202" s="3">
-        <v>24.0</v>
+        <v>29.0</v>
       </c>
       <c r="C202" s="3">
-        <v>36.0</v>
+        <v>18.0</v>
       </c>
       <c r="D202" s="3">
-        <v>26.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="203">
@@ -3128,13 +3128,13 @@
         <v>44105.0</v>
       </c>
       <c r="B203" s="3">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="C203" s="3">
-        <v>29.0</v>
+        <v>15.0</v>
       </c>
       <c r="D203" s="3">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="204">
@@ -3142,13 +3142,13 @@
         <v>44136.0</v>
       </c>
       <c r="B204" s="3">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="C204" s="3">
-        <v>25.0</v>
+        <v>14.0</v>
       </c>
       <c r="D204" s="3">
-        <v>22.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="205">
@@ -3156,13 +3156,13 @@
         <v>44166.0</v>
       </c>
       <c r="B205" s="3">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="C205" s="3">
-        <v>24.0</v>
+        <v>17.0</v>
       </c>
       <c r="D205" s="3">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="206">
@@ -3170,13 +3170,13 @@
         <v>44197.0</v>
       </c>
       <c r="B206" s="3">
-        <v>35.0</v>
+        <v>21.0</v>
       </c>
       <c r="C206" s="3">
-        <v>30.0</v>
+        <v>24.0</v>
       </c>
       <c r="D206" s="3">
-        <v>21.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="207">
@@ -3184,13 +3184,13 @@
         <v>44228.0</v>
       </c>
       <c r="B207" s="3">
-        <v>27.0</v>
+        <v>18.0</v>
       </c>
       <c r="C207" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="D207" s="3">
         <v>29.0</v>
-      </c>
-      <c r="D207" s="3">
-        <v>19.0</v>
       </c>
     </row>
     <row r="208">
@@ -3198,13 +3198,13 @@
         <v>44256.0</v>
       </c>
       <c r="B208" s="3">
-        <v>29.0</v>
+        <v>23.0</v>
       </c>
       <c r="C208" s="3">
-        <v>53.0</v>
+        <v>21.0</v>
       </c>
       <c r="D208" s="3">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="209">
@@ -3212,13 +3212,13 @@
         <v>44287.0</v>
       </c>
       <c r="B209" s="3">
-        <v>29.0</v>
+        <v>20.0</v>
       </c>
       <c r="C209" s="3">
-        <v>31.0</v>
+        <v>21.0</v>
       </c>
       <c r="D209" s="3">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="210">
@@ -3226,13 +3226,13 @@
         <v>44317.0</v>
       </c>
       <c r="B210" s="3">
-        <v>33.0</v>
+        <v>24.0</v>
       </c>
       <c r="C210" s="3">
-        <v>51.0</v>
+        <v>24.0</v>
       </c>
       <c r="D210" s="3">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="211">
@@ -3240,13 +3240,13 @@
         <v>44348.0</v>
       </c>
       <c r="B211" s="3">
-        <v>40.0</v>
+        <v>31.0</v>
       </c>
       <c r="C211" s="3">
-        <v>57.0</v>
+        <v>27.0</v>
       </c>
       <c r="D211" s="3">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="212">
@@ -3254,13 +3254,13 @@
         <v>44378.0</v>
       </c>
       <c r="B212" s="3">
-        <v>37.0</v>
+        <v>24.0</v>
       </c>
       <c r="C212" s="3">
-        <v>48.0</v>
+        <v>28.0</v>
       </c>
       <c r="D212" s="3">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="213">
@@ -3268,13 +3268,13 @@
         <v>44409.0</v>
       </c>
       <c r="B213" s="3">
-        <v>48.0</v>
+        <v>34.0</v>
       </c>
       <c r="C213" s="3">
-        <v>60.0</v>
+        <v>34.0</v>
       </c>
       <c r="D213" s="3">
-        <v>34.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="214">
@@ -3282,13 +3282,13 @@
         <v>44440.0</v>
       </c>
       <c r="B214" s="3">
-        <v>44.0</v>
+        <v>50.0</v>
       </c>
       <c r="C214" s="3">
-        <v>59.0</v>
+        <v>33.0</v>
       </c>
       <c r="D214" s="3">
-        <v>45.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="215">
@@ -3296,13 +3296,13 @@
         <v>44470.0</v>
       </c>
       <c r="B215" s="3">
-        <v>46.0</v>
+        <v>43.0</v>
       </c>
       <c r="C215" s="3">
-        <v>64.0</v>
+        <v>31.0</v>
       </c>
       <c r="D215" s="3">
-        <v>40.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="216">
@@ -3310,13 +3310,13 @@
         <v>44501.0</v>
       </c>
       <c r="B216" s="3">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="C216" s="3">
-        <v>47.0</v>
+        <v>28.0</v>
       </c>
       <c r="D216" s="3">
-        <v>36.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="217">
@@ -3324,13 +3324,13 @@
         <v>44531.0</v>
       </c>
       <c r="B217" s="3">
-        <v>41.0</v>
+        <v>31.0</v>
       </c>
       <c r="C217" s="3">
-        <v>62.0</v>
+        <v>29.0</v>
       </c>
       <c r="D217" s="3">
-        <v>30.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="218">
@@ -3338,13 +3338,13 @@
         <v>44562.0</v>
       </c>
       <c r="B218" s="3">
-        <v>60.0</v>
+        <v>42.0</v>
       </c>
       <c r="C218" s="3">
-        <v>62.0</v>
+        <v>44.0</v>
       </c>
       <c r="D218" s="3">
-        <v>42.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="219">
@@ -3352,13 +3352,13 @@
         <v>44593.0</v>
       </c>
       <c r="B219" s="3">
-        <v>53.0</v>
+        <v>32.0</v>
       </c>
       <c r="C219" s="3">
-        <v>75.0</v>
+        <v>38.0</v>
       </c>
       <c r="D219" s="3">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="220">
@@ -3366,13 +3366,13 @@
         <v>44621.0</v>
       </c>
       <c r="B220" s="3">
-        <v>55.0</v>
+        <v>44.0</v>
       </c>
       <c r="C220" s="3">
-        <v>88.0</v>
+        <v>40.0</v>
       </c>
       <c r="D220" s="3">
-        <v>46.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="221">
@@ -3380,13 +3380,13 @@
         <v>44652.0</v>
       </c>
       <c r="B221" s="3">
-        <v>48.0</v>
+        <v>47.0</v>
       </c>
       <c r="C221" s="3">
-        <v>59.0</v>
+        <v>36.0</v>
       </c>
       <c r="D221" s="3">
-        <v>46.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="222">
@@ -3394,13 +3394,13 @@
         <v>44682.0</v>
       </c>
       <c r="B222" s="3">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
       <c r="C222" s="3">
-        <v>83.0</v>
+        <v>40.0</v>
       </c>
       <c r="D222" s="3">
-        <v>56.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="223">
@@ -3408,13 +3408,13 @@
         <v>44713.0</v>
       </c>
       <c r="B223" s="3">
-        <v>54.0</v>
+        <v>53.0</v>
       </c>
       <c r="C223" s="3">
-        <v>77.0</v>
+        <v>38.0</v>
       </c>
       <c r="D223" s="3">
-        <v>50.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="224">
@@ -3422,13 +3422,13 @@
         <v>44743.0</v>
       </c>
       <c r="B224" s="3">
-        <v>56.0</v>
+        <v>49.0</v>
       </c>
       <c r="C224" s="3">
-        <v>68.0</v>
+        <v>40.0</v>
       </c>
       <c r="D224" s="3">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="225">
@@ -3436,13 +3436,13 @@
         <v>44774.0</v>
       </c>
       <c r="B225" s="3">
-        <v>54.0</v>
+        <v>58.0</v>
       </c>
       <c r="C225" s="3">
-        <v>79.0</v>
+        <v>41.0</v>
       </c>
       <c r="D225" s="3">
-        <v>57.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="226">
@@ -3450,13 +3450,13 @@
         <v>44805.0</v>
       </c>
       <c r="B226" s="3">
-        <v>46.0</v>
+        <v>63.0</v>
       </c>
       <c r="C226" s="3">
-        <v>68.0</v>
+        <v>37.0</v>
       </c>
       <c r="D226" s="3">
-        <v>62.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="227">
@@ -3464,13 +3464,13 @@
         <v>44835.0</v>
       </c>
       <c r="B227" s="3">
-        <v>43.0</v>
+        <v>100.0</v>
       </c>
       <c r="C227" s="3">
-        <v>51.0</v>
+        <v>31.0</v>
       </c>
       <c r="D227" s="3">
-        <v>100.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="228">
@@ -3478,13 +3478,13 @@
         <v>44866.0</v>
       </c>
       <c r="B228" s="3">
-        <v>43.0</v>
+        <v>66.0</v>
       </c>
       <c r="C228" s="3">
-        <v>48.0</v>
+        <v>33.0</v>
       </c>
       <c r="D228" s="3">
-        <v>64.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="229">
@@ -3492,13 +3492,13 @@
         <v>44896.0</v>
       </c>
       <c r="B229" s="3">
-        <v>45.0</v>
+        <v>37.0</v>
       </c>
       <c r="C229" s="3">
-        <v>52.0</v>
+        <v>32.0</v>
       </c>
       <c r="D229" s="3">
-        <v>37.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="230">
@@ -3506,13 +3506,13 @@
         <v>44927.0</v>
       </c>
       <c r="B230" s="3">
-        <v>61.0</v>
+        <v>49.0</v>
       </c>
       <c r="C230" s="3">
-        <v>71.0</v>
+        <v>44.0</v>
       </c>
       <c r="D230" s="3">
-        <v>50.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="231">
@@ -3520,13 +3520,13 @@
         <v>44958.0</v>
       </c>
       <c r="B231" s="3">
-        <v>49.0</v>
+        <v>41.0</v>
       </c>
       <c r="C231" s="3">
-        <v>65.0</v>
+        <v>37.0</v>
       </c>
       <c r="D231" s="3">
-        <v>39.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="232">
@@ -3534,13 +3534,13 @@
         <v>44986.0</v>
       </c>
       <c r="B232" s="3">
-        <v>51.0</v>
+        <v>44.0</v>
       </c>
       <c r="C232" s="3">
-        <v>71.0</v>
+        <v>37.0</v>
       </c>
       <c r="D232" s="3">
-        <v>43.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="233">
@@ -3548,13 +3548,13 @@
         <v>45017.0</v>
       </c>
       <c r="B233" s="3">
-        <v>47.0</v>
+        <v>42.0</v>
       </c>
       <c r="C233" s="3">
-        <v>58.0</v>
+        <v>33.0</v>
       </c>
       <c r="D233" s="3">
-        <v>43.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="234">
@@ -3562,13 +3562,13 @@
         <v>45047.0</v>
       </c>
       <c r="B234" s="3">
-        <v>50.0</v>
+        <v>42.0</v>
       </c>
       <c r="C234" s="3">
-        <v>61.0</v>
+        <v>36.0</v>
       </c>
       <c r="D234" s="3">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="235">
@@ -3576,13 +3576,13 @@
         <v>45078.0</v>
       </c>
       <c r="B235" s="3">
-        <v>46.0</v>
+        <v>40.0</v>
       </c>
       <c r="C235" s="3">
-        <v>65.0</v>
+        <v>34.0</v>
       </c>
       <c r="D235" s="3">
-        <v>39.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="236">
@@ -3590,13 +3590,13 @@
         <v>45108.0</v>
       </c>
       <c r="B236" s="3">
-        <v>45.0</v>
+        <v>31.0</v>
       </c>
       <c r="C236" s="3">
-        <v>56.0</v>
+        <v>33.0</v>
       </c>
       <c r="D236" s="3">
-        <v>28.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="237">
@@ -3604,13 +3604,13 @@
         <v>45139.0</v>
       </c>
       <c r="B237" s="3">
-        <v>49.0</v>
+        <v>33.0</v>
       </c>
       <c r="C237" s="3">
-        <v>88.0</v>
+        <v>37.0</v>
       </c>
       <c r="D237" s="3">
-        <v>32.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="238">
@@ -3618,13 +3618,13 @@
         <v>45170.0</v>
       </c>
       <c r="B238" s="3">
-        <v>46.0</v>
+        <v>33.0</v>
       </c>
       <c r="C238" s="3">
-        <v>76.0</v>
+        <v>35.0</v>
       </c>
       <c r="D238" s="3">
-        <v>29.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="239">
@@ -3632,13 +3632,13 @@
         <v>45200.0</v>
       </c>
       <c r="B239" s="3">
-        <v>44.0</v>
+        <v>32.0</v>
       </c>
       <c r="C239" s="3">
-        <v>58.0</v>
+        <v>33.0</v>
       </c>
       <c r="D239" s="3">
-        <v>30.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="240">
@@ -3646,13 +3646,13 @@
         <v>45231.0</v>
       </c>
       <c r="B240" s="3">
-        <v>41.0</v>
+        <v>32.0</v>
       </c>
       <c r="C240" s="3">
-        <v>70.0</v>
+        <v>31.0</v>
       </c>
       <c r="D240" s="3">
-        <v>31.0</v>
+        <v>18.0</v>
       </c>
     </row>
   </sheetData>

--- a/data/google_trends_brazil.xlsx
+++ b/data/google_trends_brazil.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>month_date</t>
   </si>
@@ -20,6 +20,9 @@
   </si>
   <si>
     <t>search_term_ipca</t>
+  </si>
+  <si>
+    <t>search_term_selic</t>
   </si>
   <si>
     <t>search_term_igpm</t>
@@ -292,7 +295,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="4" width="19.88"/>
+    <col customWidth="1" min="2" max="5" width="19.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -308,6 +311,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
@@ -319,7 +325,8 @@
       <c r="C2" s="3">
         <v>21.0</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3">
         <v>86.0</v>
       </c>
     </row>
@@ -333,7 +340,8 @@
       <c r="C3" s="3">
         <v>13.0</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
         <v>80.0</v>
       </c>
     </row>
@@ -347,7 +355,8 @@
       <c r="C4" s="3">
         <v>4.0</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
         <v>60.0</v>
       </c>
     </row>
@@ -361,7 +370,8 @@
       <c r="C5" s="3">
         <v>14.0</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
         <v>68.0</v>
       </c>
     </row>
@@ -375,7 +385,8 @@
       <c r="C6" s="3">
         <v>19.0</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
         <v>72.0</v>
       </c>
     </row>
@@ -389,7 +400,8 @@
       <c r="C7" s="3">
         <v>11.0</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
         <v>59.0</v>
       </c>
     </row>
@@ -403,7 +415,8 @@
       <c r="C8" s="3">
         <v>14.0</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
         <v>61.0</v>
       </c>
     </row>
@@ -417,7 +430,8 @@
       <c r="C9" s="3">
         <v>21.0</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
         <v>64.0</v>
       </c>
     </row>
@@ -431,7 +445,8 @@
       <c r="C10" s="3">
         <v>20.0</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
         <v>61.0</v>
       </c>
     </row>
@@ -445,7 +460,8 @@
       <c r="C11" s="3">
         <v>13.0</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
         <v>61.0</v>
       </c>
     </row>
@@ -459,7 +475,8 @@
       <c r="C12" s="3">
         <v>18.0</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
         <v>55.0</v>
       </c>
     </row>
@@ -473,7 +490,8 @@
       <c r="C13" s="3">
         <v>16.0</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
         <v>68.0</v>
       </c>
     </row>
@@ -487,7 +505,8 @@
       <c r="C14" s="3">
         <v>23.0</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
         <v>79.0</v>
       </c>
     </row>
@@ -501,7 +520,8 @@
       <c r="C15" s="3">
         <v>25.0</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
         <v>67.0</v>
       </c>
     </row>
@@ -515,7 +535,8 @@
       <c r="C16" s="3">
         <v>21.0</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
         <v>66.0</v>
       </c>
     </row>
@@ -529,7 +550,8 @@
       <c r="C17" s="3">
         <v>12.0</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
         <v>61.0</v>
       </c>
     </row>
@@ -543,7 +565,8 @@
       <c r="C18" s="3">
         <v>22.0</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3">
         <v>65.0</v>
       </c>
     </row>
@@ -557,7 +580,8 @@
       <c r="C19" s="3">
         <v>18.0</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
         <v>63.0</v>
       </c>
     </row>
@@ -571,7 +595,8 @@
       <c r="C20" s="3">
         <v>16.0</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
         <v>58.0</v>
       </c>
     </row>
@@ -585,7 +610,8 @@
       <c r="C21" s="3">
         <v>17.0</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
         <v>59.0</v>
       </c>
     </row>
@@ -599,7 +625,8 @@
       <c r="C22" s="3">
         <v>13.0</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3">
         <v>55.0</v>
       </c>
     </row>
@@ -613,7 +640,8 @@
       <c r="C23" s="3">
         <v>16.0</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3">
         <v>46.0</v>
       </c>
     </row>
@@ -627,7 +655,8 @@
       <c r="C24" s="3">
         <v>14.0</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
         <v>47.0</v>
       </c>
     </row>
@@ -641,7 +670,8 @@
       <c r="C25" s="3">
         <v>16.0</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
         <v>56.0</v>
       </c>
     </row>
@@ -655,7 +685,8 @@
       <c r="C26" s="3">
         <v>19.0</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3">
         <v>64.0</v>
       </c>
     </row>
@@ -669,7 +700,8 @@
       <c r="C27" s="3">
         <v>18.0</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3">
         <v>54.0</v>
       </c>
     </row>
@@ -683,7 +715,8 @@
       <c r="C28" s="3">
         <v>14.0</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3">
         <v>50.0</v>
       </c>
     </row>
@@ -697,7 +730,8 @@
       <c r="C29" s="3">
         <v>14.0</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3"/>
+      <c r="E29" s="3">
         <v>45.0</v>
       </c>
     </row>
@@ -711,7 +745,8 @@
       <c r="C30" s="3">
         <v>17.0</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="3"/>
+      <c r="E30" s="3">
         <v>50.0</v>
       </c>
     </row>
@@ -725,7 +760,8 @@
       <c r="C31" s="3">
         <v>11.0</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="3"/>
+      <c r="E31" s="3">
         <v>44.0</v>
       </c>
     </row>
@@ -739,7 +775,8 @@
       <c r="C32" s="3">
         <v>12.0</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3">
         <v>39.0</v>
       </c>
     </row>
@@ -753,7 +790,8 @@
       <c r="C33" s="3">
         <v>13.0</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3"/>
+      <c r="E33" s="3">
         <v>44.0</v>
       </c>
     </row>
@@ -767,7 +805,8 @@
       <c r="C34" s="3">
         <v>11.0</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="3"/>
+      <c r="E34" s="3">
         <v>41.0</v>
       </c>
     </row>
@@ -781,7 +820,8 @@
       <c r="C35" s="3">
         <v>12.0</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3"/>
+      <c r="E35" s="3">
         <v>38.0</v>
       </c>
     </row>
@@ -795,7 +835,8 @@
       <c r="C36" s="3">
         <v>12.0</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="3"/>
+      <c r="E36" s="3">
         <v>36.0</v>
       </c>
     </row>
@@ -809,7 +850,8 @@
       <c r="C37" s="3">
         <v>11.0</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="3"/>
+      <c r="E37" s="3">
         <v>32.0</v>
       </c>
     </row>
@@ -823,7 +865,8 @@
       <c r="C38" s="3">
         <v>14.0</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="3"/>
+      <c r="E38" s="3">
         <v>47.0</v>
       </c>
     </row>
@@ -837,7 +880,8 @@
       <c r="C39" s="3">
         <v>10.0</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="3"/>
+      <c r="E39" s="3">
         <v>41.0</v>
       </c>
     </row>
@@ -851,7 +895,8 @@
       <c r="C40" s="3">
         <v>11.0</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="3"/>
+      <c r="E40" s="3">
         <v>39.0</v>
       </c>
     </row>
@@ -865,7 +910,8 @@
       <c r="C41" s="3">
         <v>11.0</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="3"/>
+      <c r="E41" s="3">
         <v>34.0</v>
       </c>
     </row>
@@ -879,7 +925,8 @@
       <c r="C42" s="3">
         <v>12.0</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3"/>
+      <c r="E42" s="3">
         <v>36.0</v>
       </c>
     </row>
@@ -893,7 +940,8 @@
       <c r="C43" s="3">
         <v>10.0</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3"/>
+      <c r="E43" s="3">
         <v>34.0</v>
       </c>
     </row>
@@ -907,7 +955,8 @@
       <c r="C44" s="3">
         <v>10.0</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3"/>
+      <c r="E44" s="3">
         <v>34.0</v>
       </c>
     </row>
@@ -921,7 +970,8 @@
       <c r="C45" s="3">
         <v>9.0</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3"/>
+      <c r="E45" s="3">
         <v>34.0</v>
       </c>
     </row>
@@ -935,7 +985,8 @@
       <c r="C46" s="3">
         <v>9.0</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="3"/>
+      <c r="E46" s="3">
         <v>29.0</v>
       </c>
     </row>
@@ -949,7 +1000,8 @@
       <c r="C47" s="3">
         <v>11.0</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3"/>
+      <c r="E47" s="3">
         <v>33.0</v>
       </c>
     </row>
@@ -963,7 +1015,8 @@
       <c r="C48" s="3">
         <v>7.0</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3"/>
+      <c r="E48" s="3">
         <v>32.0</v>
       </c>
     </row>
@@ -977,7 +1030,8 @@
       <c r="C49" s="3">
         <v>9.0</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3"/>
+      <c r="E49" s="3">
         <v>32.0</v>
       </c>
     </row>
@@ -991,7 +1045,8 @@
       <c r="C50" s="3">
         <v>12.0</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="3"/>
+      <c r="E50" s="3">
         <v>46.0</v>
       </c>
     </row>
@@ -1005,7 +1060,8 @@
       <c r="C51" s="3">
         <v>11.0</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="3"/>
+      <c r="E51" s="3">
         <v>42.0</v>
       </c>
     </row>
@@ -1019,7 +1075,8 @@
       <c r="C52" s="3">
         <v>11.0</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3"/>
+      <c r="E52" s="3">
         <v>36.0</v>
       </c>
     </row>
@@ -1033,7 +1090,8 @@
       <c r="C53" s="3">
         <v>11.0</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="3"/>
+      <c r="E53" s="3">
         <v>37.0</v>
       </c>
     </row>
@@ -1047,7 +1105,8 @@
       <c r="C54" s="3">
         <v>12.0</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="3"/>
+      <c r="E54" s="3">
         <v>38.0</v>
       </c>
     </row>
@@ -1061,7 +1120,8 @@
       <c r="C55" s="3">
         <v>12.0</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="3"/>
+      <c r="E55" s="3">
         <v>45.0</v>
       </c>
     </row>
@@ -1075,7 +1135,8 @@
       <c r="C56" s="3">
         <v>13.0</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="3"/>
+      <c r="E56" s="3">
         <v>46.0</v>
       </c>
     </row>
@@ -1089,7 +1150,8 @@
       <c r="C57" s="3">
         <v>12.0</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3"/>
+      <c r="E57" s="3">
         <v>48.0</v>
       </c>
     </row>
@@ -1103,7 +1165,8 @@
       <c r="C58" s="3">
         <v>12.0</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3"/>
+      <c r="E58" s="3">
         <v>47.0</v>
       </c>
     </row>
@@ -1117,7 +1180,8 @@
       <c r="C59" s="3">
         <v>10.0</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3"/>
+      <c r="E59" s="3">
         <v>45.0</v>
       </c>
     </row>
@@ -1131,7 +1195,8 @@
       <c r="C60" s="3">
         <v>10.0</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3"/>
+      <c r="E60" s="3">
         <v>35.0</v>
       </c>
     </row>
@@ -1145,7 +1210,8 @@
       <c r="C61" s="3">
         <v>9.0</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="3"/>
+      <c r="E61" s="3">
         <v>43.0</v>
       </c>
     </row>
@@ -1159,7 +1225,8 @@
       <c r="C62" s="3">
         <v>13.0</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3"/>
+      <c r="E62" s="3">
         <v>59.0</v>
       </c>
     </row>
@@ -1173,7 +1240,8 @@
       <c r="C63" s="3">
         <v>11.0</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="3"/>
+      <c r="E63" s="3">
         <v>49.0</v>
       </c>
     </row>
@@ -1187,7 +1255,8 @@
       <c r="C64" s="3">
         <v>12.0</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="3"/>
+      <c r="E64" s="3">
         <v>46.0</v>
       </c>
     </row>
@@ -1201,7 +1270,8 @@
       <c r="C65" s="3">
         <v>10.0</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="3"/>
+      <c r="E65" s="3">
         <v>40.0</v>
       </c>
     </row>
@@ -1215,7 +1285,8 @@
       <c r="C66" s="3">
         <v>10.0</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3"/>
+      <c r="E66" s="3">
         <v>40.0</v>
       </c>
     </row>
@@ -1229,7 +1300,8 @@
       <c r="C67" s="3">
         <v>10.0</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="3"/>
+      <c r="E67" s="3">
         <v>39.0</v>
       </c>
     </row>
@@ -1243,7 +1315,8 @@
       <c r="C68" s="3">
         <v>8.0</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="3"/>
+      <c r="E68" s="3">
         <v>39.0</v>
       </c>
     </row>
@@ -1257,7 +1330,8 @@
       <c r="C69" s="3">
         <v>8.0</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="3"/>
+      <c r="E69" s="3">
         <v>36.0</v>
       </c>
     </row>
@@ -1271,7 +1345,8 @@
       <c r="C70" s="3">
         <v>11.0</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="3"/>
+      <c r="E70" s="3">
         <v>31.0</v>
       </c>
     </row>
@@ -1285,7 +1360,8 @@
       <c r="C71" s="3">
         <v>10.0</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="3"/>
+      <c r="E71" s="3">
         <v>32.0</v>
       </c>
     </row>
@@ -1299,7 +1375,8 @@
       <c r="C72" s="3">
         <v>9.0</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3"/>
+      <c r="E72" s="3">
         <v>29.0</v>
       </c>
     </row>
@@ -1313,7 +1390,8 @@
       <c r="C73" s="3">
         <v>9.0</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="3"/>
+      <c r="E73" s="3">
         <v>27.0</v>
       </c>
     </row>
@@ -1327,7 +1405,8 @@
       <c r="C74" s="3">
         <v>12.0</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="3"/>
+      <c r="E74" s="3">
         <v>30.0</v>
       </c>
     </row>
@@ -1341,7 +1420,8 @@
       <c r="C75" s="3">
         <v>10.0</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="3"/>
+      <c r="E75" s="3">
         <v>31.0</v>
       </c>
     </row>
@@ -1355,7 +1435,8 @@
       <c r="C76" s="3">
         <v>10.0</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3"/>
+      <c r="E76" s="3">
         <v>32.0</v>
       </c>
     </row>
@@ -1369,7 +1450,8 @@
       <c r="C77" s="3">
         <v>10.0</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="3"/>
+      <c r="E77" s="3">
         <v>28.0</v>
       </c>
     </row>
@@ -1383,7 +1465,8 @@
       <c r="C78" s="3">
         <v>11.0</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="3"/>
+      <c r="E78" s="3">
         <v>32.0</v>
       </c>
     </row>
@@ -1397,7 +1480,8 @@
       <c r="C79" s="3">
         <v>10.0</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="3"/>
+      <c r="E79" s="3">
         <v>32.0</v>
       </c>
     </row>
@@ -1411,7 +1495,8 @@
       <c r="C80" s="3">
         <v>10.0</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="3"/>
+      <c r="E80" s="3">
         <v>28.0</v>
       </c>
     </row>
@@ -1425,7 +1510,8 @@
       <c r="C81" s="3">
         <v>12.0</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3"/>
+      <c r="E81" s="3">
         <v>32.0</v>
       </c>
     </row>
@@ -1439,7 +1525,8 @@
       <c r="C82" s="3">
         <v>11.0</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="3"/>
+      <c r="E82" s="3">
         <v>29.0</v>
       </c>
     </row>
@@ -1453,7 +1540,8 @@
       <c r="C83" s="3">
         <v>9.0</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3"/>
+      <c r="E83" s="3">
         <v>30.0</v>
       </c>
     </row>
@@ -1467,7 +1555,8 @@
       <c r="C84" s="3">
         <v>11.0</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="3"/>
+      <c r="E84" s="3">
         <v>31.0</v>
       </c>
     </row>
@@ -1481,7 +1570,8 @@
       <c r="C85" s="3">
         <v>10.0</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="3"/>
+      <c r="E85" s="3">
         <v>39.0</v>
       </c>
     </row>
@@ -1495,7 +1585,8 @@
       <c r="C86" s="3">
         <v>9.0</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="3"/>
+      <c r="E86" s="3">
         <v>40.0</v>
       </c>
     </row>
@@ -1509,7 +1600,8 @@
       <c r="C87" s="3">
         <v>9.0</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="3"/>
+      <c r="E87" s="3">
         <v>34.0</v>
       </c>
     </row>
@@ -1523,7 +1615,8 @@
       <c r="C88" s="3">
         <v>8.0</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="3"/>
+      <c r="E88" s="3">
         <v>30.0</v>
       </c>
     </row>
@@ -1537,7 +1630,8 @@
       <c r="C89" s="3">
         <v>8.0</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3"/>
+      <c r="E89" s="3">
         <v>29.0</v>
       </c>
     </row>
@@ -1551,7 +1645,8 @@
       <c r="C90" s="3">
         <v>10.0</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="3"/>
+      <c r="E90" s="3">
         <v>31.0</v>
       </c>
     </row>
@@ -1565,7 +1660,8 @@
       <c r="C91" s="3">
         <v>8.0</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3"/>
+      <c r="E91" s="3">
         <v>28.0</v>
       </c>
     </row>
@@ -1579,7 +1675,8 @@
       <c r="C92" s="3">
         <v>8.0</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="3"/>
+      <c r="E92" s="3">
         <v>30.0</v>
       </c>
     </row>
@@ -1593,7 +1690,8 @@
       <c r="C93" s="3">
         <v>8.0</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="3"/>
+      <c r="E93" s="3">
         <v>29.0</v>
       </c>
     </row>
@@ -1607,7 +1705,8 @@
       <c r="C94" s="3">
         <v>8.0</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3"/>
+      <c r="E94" s="3">
         <v>27.0</v>
       </c>
     </row>
@@ -1621,7 +1720,8 @@
       <c r="C95" s="3">
         <v>7.0</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="3"/>
+      <c r="E95" s="3">
         <v>27.0</v>
       </c>
     </row>
@@ -1635,7 +1735,8 @@
       <c r="C96" s="3">
         <v>9.0</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="3"/>
+      <c r="E96" s="3">
         <v>26.0</v>
       </c>
     </row>
@@ -1649,7 +1750,8 @@
       <c r="C97" s="3">
         <v>8.0</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="3"/>
+      <c r="E97" s="3">
         <v>25.0</v>
       </c>
     </row>
@@ -1663,7 +1765,8 @@
       <c r="C98" s="3">
         <v>9.0</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="3"/>
+      <c r="E98" s="3">
         <v>32.0</v>
       </c>
     </row>
@@ -1677,7 +1780,8 @@
       <c r="C99" s="3">
         <v>9.0</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="3"/>
+      <c r="E99" s="3">
         <v>29.0</v>
       </c>
     </row>
@@ -1691,7 +1795,8 @@
       <c r="C100" s="3">
         <v>9.0</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3"/>
+      <c r="E100" s="3">
         <v>28.0</v>
       </c>
     </row>
@@ -1705,7 +1810,8 @@
       <c r="C101" s="3">
         <v>8.0</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3"/>
+      <c r="E101" s="3">
         <v>23.0</v>
       </c>
     </row>
@@ -1719,7 +1825,8 @@
       <c r="C102" s="3">
         <v>9.0</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3"/>
+      <c r="E102" s="3">
         <v>26.0</v>
       </c>
     </row>
@@ -1733,7 +1840,8 @@
       <c r="C103" s="3">
         <v>8.0</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103" s="3"/>
+      <c r="E103" s="3">
         <v>23.0</v>
       </c>
     </row>
@@ -1747,7 +1855,8 @@
       <c r="C104" s="3">
         <v>7.0</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104" s="3"/>
+      <c r="E104" s="3">
         <v>24.0</v>
       </c>
     </row>
@@ -1761,7 +1870,8 @@
       <c r="C105" s="3">
         <v>8.0</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105" s="3"/>
+      <c r="E105" s="3">
         <v>24.0</v>
       </c>
     </row>
@@ -1775,7 +1885,8 @@
       <c r="C106" s="3">
         <v>7.0</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106" s="3"/>
+      <c r="E106" s="3">
         <v>24.0</v>
       </c>
     </row>
@@ -1789,7 +1900,8 @@
       <c r="C107" s="3">
         <v>7.0</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107" s="3"/>
+      <c r="E107" s="3">
         <v>24.0</v>
       </c>
     </row>
@@ -1803,7 +1915,8 @@
       <c r="C108" s="3">
         <v>7.0</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D108" s="3"/>
+      <c r="E108" s="3">
         <v>22.0</v>
       </c>
     </row>
@@ -1817,7 +1930,8 @@
       <c r="C109" s="3">
         <v>7.0</v>
       </c>
-      <c r="D109" s="3">
+      <c r="D109" s="3"/>
+      <c r="E109" s="3">
         <v>21.0</v>
       </c>
     </row>
@@ -1831,7 +1945,8 @@
       <c r="C110" s="3">
         <v>10.0</v>
       </c>
-      <c r="D110" s="3">
+      <c r="D110" s="3"/>
+      <c r="E110" s="3">
         <v>33.0</v>
       </c>
     </row>
@@ -1845,7 +1960,8 @@
       <c r="C111" s="3">
         <v>8.0</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D111" s="3"/>
+      <c r="E111" s="3">
         <v>26.0</v>
       </c>
     </row>
@@ -1859,7 +1975,8 @@
       <c r="C112" s="3">
         <v>8.0</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D112" s="3"/>
+      <c r="E112" s="3">
         <v>25.0</v>
       </c>
     </row>
@@ -1873,7 +1990,8 @@
       <c r="C113" s="3">
         <v>9.0</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D113" s="3"/>
+      <c r="E113" s="3">
         <v>23.0</v>
       </c>
     </row>
@@ -1887,7 +2005,8 @@
       <c r="C114" s="3">
         <v>9.0</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D114" s="3"/>
+      <c r="E114" s="3">
         <v>24.0</v>
       </c>
     </row>
@@ -1901,7 +2020,8 @@
       <c r="C115" s="3">
         <v>8.0</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115" s="3"/>
+      <c r="E115" s="3">
         <v>23.0</v>
       </c>
     </row>
@@ -1915,7 +2035,8 @@
       <c r="C116" s="3">
         <v>8.0</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D116" s="3"/>
+      <c r="E116" s="3">
         <v>24.0</v>
       </c>
     </row>
@@ -1929,7 +2050,8 @@
       <c r="C117" s="3">
         <v>9.0</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D117" s="3"/>
+      <c r="E117" s="3">
         <v>23.0</v>
       </c>
     </row>
@@ -1943,7 +2065,8 @@
       <c r="C118" s="3">
         <v>8.0</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D118" s="3"/>
+      <c r="E118" s="3">
         <v>22.0</v>
       </c>
     </row>
@@ -1957,7 +2080,8 @@
       <c r="C119" s="3">
         <v>8.0</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D119" s="3"/>
+      <c r="E119" s="3">
         <v>24.0</v>
       </c>
     </row>
@@ -1971,7 +2095,8 @@
       <c r="C120" s="3">
         <v>7.0</v>
       </c>
-      <c r="D120" s="3">
+      <c r="D120" s="3"/>
+      <c r="E120" s="3">
         <v>21.0</v>
       </c>
     </row>
@@ -1985,7 +2110,8 @@
       <c r="C121" s="3">
         <v>6.0</v>
       </c>
-      <c r="D121" s="3">
+      <c r="D121" s="3"/>
+      <c r="E121" s="3">
         <v>20.0</v>
       </c>
     </row>
@@ -1999,7 +2125,8 @@
       <c r="C122" s="3">
         <v>11.0</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D122" s="3"/>
+      <c r="E122" s="3">
         <v>28.0</v>
       </c>
     </row>
@@ -2013,7 +2140,8 @@
       <c r="C123" s="3">
         <v>9.0</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D123" s="3"/>
+      <c r="E123" s="3">
         <v>24.0</v>
       </c>
     </row>
@@ -2027,7 +2155,8 @@
       <c r="C124" s="3">
         <v>8.0</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D124" s="3"/>
+      <c r="E124" s="3">
         <v>25.0</v>
       </c>
     </row>
@@ -2041,7 +2170,8 @@
       <c r="C125" s="3">
         <v>9.0</v>
       </c>
-      <c r="D125" s="3">
+      <c r="D125" s="3"/>
+      <c r="E125" s="3">
         <v>22.0</v>
       </c>
     </row>
@@ -2055,7 +2185,8 @@
       <c r="C126" s="3">
         <v>9.0</v>
       </c>
-      <c r="D126" s="3">
+      <c r="D126" s="3"/>
+      <c r="E126" s="3">
         <v>23.0</v>
       </c>
     </row>
@@ -2069,7 +2200,8 @@
       <c r="C127" s="3">
         <v>6.0</v>
       </c>
-      <c r="D127" s="3">
+      <c r="D127" s="3"/>
+      <c r="E127" s="3">
         <v>24.0</v>
       </c>
     </row>
@@ -2083,7 +2215,8 @@
       <c r="C128" s="3">
         <v>8.0</v>
       </c>
-      <c r="D128" s="3">
+      <c r="D128" s="3"/>
+      <c r="E128" s="3">
         <v>23.0</v>
       </c>
     </row>
@@ -2097,7 +2230,8 @@
       <c r="C129" s="3">
         <v>8.0</v>
       </c>
-      <c r="D129" s="3">
+      <c r="D129" s="3"/>
+      <c r="E129" s="3">
         <v>21.0</v>
       </c>
     </row>
@@ -2111,7 +2245,8 @@
       <c r="C130" s="3">
         <v>10.0</v>
       </c>
-      <c r="D130" s="3">
+      <c r="D130" s="3"/>
+      <c r="E130" s="3">
         <v>23.0</v>
       </c>
     </row>
@@ -2125,7 +2260,8 @@
       <c r="C131" s="3">
         <v>9.0</v>
       </c>
-      <c r="D131" s="3">
+      <c r="D131" s="3"/>
+      <c r="E131" s="3">
         <v>20.0</v>
       </c>
     </row>
@@ -2139,7 +2275,8 @@
       <c r="C132" s="3">
         <v>9.0</v>
       </c>
-      <c r="D132" s="3">
+      <c r="D132" s="3"/>
+      <c r="E132" s="3">
         <v>21.0</v>
       </c>
     </row>
@@ -2153,7 +2290,8 @@
       <c r="C133" s="3">
         <v>8.0</v>
       </c>
-      <c r="D133" s="3">
+      <c r="D133" s="3"/>
+      <c r="E133" s="3">
         <v>24.0</v>
       </c>
     </row>
@@ -2167,7 +2305,8 @@
       <c r="C134" s="3">
         <v>11.0</v>
       </c>
-      <c r="D134" s="3">
+      <c r="D134" s="3"/>
+      <c r="E134" s="3">
         <v>29.0</v>
       </c>
     </row>
@@ -2181,7 +2320,8 @@
       <c r="C135" s="3">
         <v>12.0</v>
       </c>
-      <c r="D135" s="3">
+      <c r="D135" s="3"/>
+      <c r="E135" s="3">
         <v>28.0</v>
       </c>
     </row>
@@ -2195,7 +2335,8 @@
       <c r="C136" s="3">
         <v>13.0</v>
       </c>
-      <c r="D136" s="3">
+      <c r="D136" s="3"/>
+      <c r="E136" s="3">
         <v>25.0</v>
       </c>
     </row>
@@ -2209,7 +2350,8 @@
       <c r="C137" s="3">
         <v>12.0</v>
       </c>
-      <c r="D137" s="3">
+      <c r="D137" s="3"/>
+      <c r="E137" s="3">
         <v>24.0</v>
       </c>
     </row>
@@ -2223,7 +2365,8 @@
       <c r="C138" s="3">
         <v>13.0</v>
       </c>
-      <c r="D138" s="3">
+      <c r="D138" s="3"/>
+      <c r="E138" s="3">
         <v>25.0</v>
       </c>
     </row>
@@ -2237,7 +2380,8 @@
       <c r="C139" s="3">
         <v>13.0</v>
       </c>
-      <c r="D139" s="3">
+      <c r="D139" s="3"/>
+      <c r="E139" s="3">
         <v>24.0</v>
       </c>
     </row>
@@ -2251,7 +2395,8 @@
       <c r="C140" s="3">
         <v>13.0</v>
       </c>
-      <c r="D140" s="3">
+      <c r="D140" s="3"/>
+      <c r="E140" s="3">
         <v>22.0</v>
       </c>
     </row>
@@ -2265,7 +2410,8 @@
       <c r="C141" s="3">
         <v>14.0</v>
       </c>
-      <c r="D141" s="3">
+      <c r="D141" s="3"/>
+      <c r="E141" s="3">
         <v>21.0</v>
       </c>
     </row>
@@ -2279,7 +2425,8 @@
       <c r="C142" s="3">
         <v>14.0</v>
       </c>
-      <c r="D142" s="3">
+      <c r="D142" s="3"/>
+      <c r="E142" s="3">
         <v>22.0</v>
       </c>
     </row>
@@ -2293,7 +2440,8 @@
       <c r="C143" s="3">
         <v>13.0</v>
       </c>
-      <c r="D143" s="3">
+      <c r="D143" s="3"/>
+      <c r="E143" s="3">
         <v>22.0</v>
       </c>
     </row>
@@ -2307,7 +2455,8 @@
       <c r="C144" s="3">
         <v>12.0</v>
       </c>
-      <c r="D144" s="3">
+      <c r="D144" s="3"/>
+      <c r="E144" s="3">
         <v>22.0</v>
       </c>
     </row>
@@ -2321,7 +2470,8 @@
       <c r="C145" s="3">
         <v>13.0</v>
       </c>
-      <c r="D145" s="3">
+      <c r="D145" s="3"/>
+      <c r="E145" s="3">
         <v>21.0</v>
       </c>
     </row>
@@ -2335,7 +2485,8 @@
       <c r="C146" s="3">
         <v>13.0</v>
       </c>
-      <c r="D146" s="3">
+      <c r="D146" s="3"/>
+      <c r="E146" s="3">
         <v>25.0</v>
       </c>
     </row>
@@ -2349,7 +2500,8 @@
       <c r="C147" s="3">
         <v>12.0</v>
       </c>
-      <c r="D147" s="3">
+      <c r="D147" s="3"/>
+      <c r="E147" s="3">
         <v>23.0</v>
       </c>
     </row>
@@ -2363,7 +2515,8 @@
       <c r="C148" s="3">
         <v>12.0</v>
       </c>
-      <c r="D148" s="3">
+      <c r="D148" s="3"/>
+      <c r="E148" s="3">
         <v>20.0</v>
       </c>
     </row>
@@ -2377,7 +2530,8 @@
       <c r="C149" s="3">
         <v>11.0</v>
       </c>
-      <c r="D149" s="3">
+      <c r="D149" s="3"/>
+      <c r="E149" s="3">
         <v>17.0</v>
       </c>
     </row>
@@ -2391,7 +2545,8 @@
       <c r="C150" s="3">
         <v>12.0</v>
       </c>
-      <c r="D150" s="3">
+      <c r="D150" s="3"/>
+      <c r="E150" s="3">
         <v>19.0</v>
       </c>
     </row>
@@ -2405,7 +2560,8 @@
       <c r="C151" s="3">
         <v>13.0</v>
       </c>
-      <c r="D151" s="3">
+      <c r="D151" s="3"/>
+      <c r="E151" s="3">
         <v>20.0</v>
       </c>
     </row>
@@ -2419,7 +2575,8 @@
       <c r="C152" s="3">
         <v>12.0</v>
       </c>
-      <c r="D152" s="3">
+      <c r="D152" s="3"/>
+      <c r="E152" s="3">
         <v>19.0</v>
       </c>
     </row>
@@ -2433,7 +2590,8 @@
       <c r="C153" s="3">
         <v>12.0</v>
       </c>
-      <c r="D153" s="3">
+      <c r="D153" s="3"/>
+      <c r="E153" s="3">
         <v>20.0</v>
       </c>
     </row>
@@ -2447,7 +2605,8 @@
       <c r="C154" s="3">
         <v>13.0</v>
       </c>
-      <c r="D154" s="3">
+      <c r="D154" s="3"/>
+      <c r="E154" s="3">
         <v>17.0</v>
       </c>
     </row>
@@ -2461,7 +2620,8 @@
       <c r="C155" s="3">
         <v>14.0</v>
       </c>
-      <c r="D155" s="3">
+      <c r="D155" s="3"/>
+      <c r="E155" s="3">
         <v>18.0</v>
       </c>
     </row>
@@ -2475,7 +2635,8 @@
       <c r="C156" s="3">
         <v>14.0</v>
       </c>
-      <c r="D156" s="3">
+      <c r="D156" s="3"/>
+      <c r="E156" s="3">
         <v>20.0</v>
       </c>
     </row>
@@ -2489,7 +2650,8 @@
       <c r="C157" s="3">
         <v>14.0</v>
       </c>
-      <c r="D157" s="3">
+      <c r="D157" s="3"/>
+      <c r="E157" s="3">
         <v>18.0</v>
       </c>
     </row>
@@ -2503,7 +2665,8 @@
       <c r="C158" s="3">
         <v>17.0</v>
       </c>
-      <c r="D158" s="3">
+      <c r="D158" s="3"/>
+      <c r="E158" s="3">
         <v>24.0</v>
       </c>
     </row>
@@ -2517,7 +2680,8 @@
       <c r="C159" s="3">
         <v>15.0</v>
       </c>
-      <c r="D159" s="3">
+      <c r="D159" s="3"/>
+      <c r="E159" s="3">
         <v>19.0</v>
       </c>
     </row>
@@ -2531,7 +2695,8 @@
       <c r="C160" s="3">
         <v>15.0</v>
       </c>
-      <c r="D160" s="3">
+      <c r="D160" s="3"/>
+      <c r="E160" s="3">
         <v>22.0</v>
       </c>
     </row>
@@ -2545,7 +2710,8 @@
       <c r="C161" s="3">
         <v>12.0</v>
       </c>
-      <c r="D161" s="3">
+      <c r="D161" s="3"/>
+      <c r="E161" s="3">
         <v>17.0</v>
       </c>
     </row>
@@ -2559,7 +2725,8 @@
       <c r="C162" s="3">
         <v>15.0</v>
       </c>
-      <c r="D162" s="3">
+      <c r="D162" s="3"/>
+      <c r="E162" s="3">
         <v>20.0</v>
       </c>
     </row>
@@ -2573,7 +2740,8 @@
       <c r="C163" s="3">
         <v>13.0</v>
       </c>
-      <c r="D163" s="3">
+      <c r="D163" s="3"/>
+      <c r="E163" s="3">
         <v>20.0</v>
       </c>
     </row>
@@ -2587,7 +2755,8 @@
       <c r="C164" s="3">
         <v>14.0</v>
       </c>
-      <c r="D164" s="3">
+      <c r="D164" s="3"/>
+      <c r="E164" s="3">
         <v>20.0</v>
       </c>
     </row>
@@ -2601,7 +2770,8 @@
       <c r="C165" s="3">
         <v>15.0</v>
       </c>
-      <c r="D165" s="3">
+      <c r="D165" s="3"/>
+      <c r="E165" s="3">
         <v>19.0</v>
       </c>
     </row>
@@ -2615,7 +2785,8 @@
       <c r="C166" s="3">
         <v>15.0</v>
       </c>
-      <c r="D166" s="3">
+      <c r="D166" s="3"/>
+      <c r="E166" s="3">
         <v>19.0</v>
       </c>
     </row>
@@ -2629,7 +2800,8 @@
       <c r="C167" s="3">
         <v>14.0</v>
       </c>
-      <c r="D167" s="3">
+      <c r="D167" s="3"/>
+      <c r="E167" s="3">
         <v>18.0</v>
       </c>
     </row>
@@ -2643,7 +2815,8 @@
       <c r="C168" s="3">
         <v>13.0</v>
       </c>
-      <c r="D168" s="3">
+      <c r="D168" s="3"/>
+      <c r="E168" s="3">
         <v>16.0</v>
       </c>
     </row>
@@ -2657,7 +2830,8 @@
       <c r="C169" s="3">
         <v>13.0</v>
       </c>
-      <c r="D169" s="3">
+      <c r="D169" s="3"/>
+      <c r="E169" s="3">
         <v>18.0</v>
       </c>
     </row>
@@ -2671,7 +2845,8 @@
       <c r="C170" s="3">
         <v>17.0</v>
       </c>
-      <c r="D170" s="3">
+      <c r="D170" s="3"/>
+      <c r="E170" s="3">
         <v>23.0</v>
       </c>
     </row>
@@ -2685,7 +2860,8 @@
       <c r="C171" s="3">
         <v>14.0</v>
       </c>
-      <c r="D171" s="3">
+      <c r="D171" s="3"/>
+      <c r="E171" s="3">
         <v>21.0</v>
       </c>
     </row>
@@ -2699,7 +2875,8 @@
       <c r="C172" s="3">
         <v>14.0</v>
       </c>
-      <c r="D172" s="3">
+      <c r="D172" s="3"/>
+      <c r="E172" s="3">
         <v>17.0</v>
       </c>
     </row>
@@ -2713,7 +2890,8 @@
       <c r="C173" s="3">
         <v>13.0</v>
       </c>
-      <c r="D173" s="3">
+      <c r="D173" s="3"/>
+      <c r="E173" s="3">
         <v>17.0</v>
       </c>
     </row>
@@ -2727,7 +2905,8 @@
       <c r="C174" s="3">
         <v>14.0</v>
       </c>
-      <c r="D174" s="3">
+      <c r="D174" s="3"/>
+      <c r="E174" s="3">
         <v>18.0</v>
       </c>
     </row>
@@ -2741,7 +2920,8 @@
       <c r="C175" s="3">
         <v>14.0</v>
       </c>
-      <c r="D175" s="3">
+      <c r="D175" s="3"/>
+      <c r="E175" s="3">
         <v>17.0</v>
       </c>
     </row>
@@ -2755,7 +2935,8 @@
       <c r="C176" s="3">
         <v>14.0</v>
       </c>
-      <c r="D176" s="3">
+      <c r="D176" s="3"/>
+      <c r="E176" s="3">
         <v>22.0</v>
       </c>
     </row>
@@ -2769,7 +2950,8 @@
       <c r="C177" s="3">
         <v>17.0</v>
       </c>
-      <c r="D177" s="3">
+      <c r="D177" s="3"/>
+      <c r="E177" s="3">
         <v>22.0</v>
       </c>
     </row>
@@ -2783,7 +2965,8 @@
       <c r="C178" s="3">
         <v>17.0</v>
       </c>
-      <c r="D178" s="3">
+      <c r="D178" s="3"/>
+      <c r="E178" s="3">
         <v>19.0</v>
       </c>
     </row>
@@ -2797,7 +2980,8 @@
       <c r="C179" s="3">
         <v>15.0</v>
       </c>
-      <c r="D179" s="3">
+      <c r="D179" s="3"/>
+      <c r="E179" s="3">
         <v>21.0</v>
       </c>
     </row>
@@ -2811,7 +2995,8 @@
       <c r="C180" s="3">
         <v>15.0</v>
       </c>
-      <c r="D180" s="3">
+      <c r="D180" s="3"/>
+      <c r="E180" s="3">
         <v>21.0</v>
       </c>
     </row>
@@ -2825,7 +3010,8 @@
       <c r="C181" s="3">
         <v>15.0</v>
       </c>
-      <c r="D181" s="3">
+      <c r="D181" s="3"/>
+      <c r="E181" s="3">
         <v>22.0</v>
       </c>
     </row>
@@ -2839,7 +3025,8 @@
       <c r="C182" s="3">
         <v>20.0</v>
       </c>
-      <c r="D182" s="3">
+      <c r="D182" s="3"/>
+      <c r="E182" s="3">
         <v>31.0</v>
       </c>
     </row>
@@ -2853,7 +3040,8 @@
       <c r="C183" s="3">
         <v>17.0</v>
       </c>
-      <c r="D183" s="3">
+      <c r="D183" s="3"/>
+      <c r="E183" s="3">
         <v>24.0</v>
       </c>
     </row>
@@ -2867,7 +3055,8 @@
       <c r="C184" s="3">
         <v>16.0</v>
       </c>
-      <c r="D184" s="3">
+      <c r="D184" s="3"/>
+      <c r="E184" s="3">
         <v>20.0</v>
       </c>
     </row>
@@ -2881,7 +3070,8 @@
       <c r="C185" s="3">
         <v>17.0</v>
       </c>
-      <c r="D185" s="3">
+      <c r="D185" s="3"/>
+      <c r="E185" s="3">
         <v>22.0</v>
       </c>
     </row>
@@ -2895,7 +3085,8 @@
       <c r="C186" s="3">
         <v>19.0</v>
       </c>
-      <c r="D186" s="3">
+      <c r="D186" s="3"/>
+      <c r="E186" s="3">
         <v>23.0</v>
       </c>
     </row>
@@ -2909,7 +3100,8 @@
       <c r="C187" s="3">
         <v>17.0</v>
       </c>
-      <c r="D187" s="3">
+      <c r="D187" s="3"/>
+      <c r="E187" s="3">
         <v>21.0</v>
       </c>
     </row>
@@ -2923,7 +3115,8 @@
       <c r="C188" s="3">
         <v>17.0</v>
       </c>
-      <c r="D188" s="3">
+      <c r="D188" s="3"/>
+      <c r="E188" s="3">
         <v>19.0</v>
       </c>
     </row>
@@ -2937,7 +3130,8 @@
       <c r="C189" s="3">
         <v>23.0</v>
       </c>
-      <c r="D189" s="3">
+      <c r="D189" s="3"/>
+      <c r="E189" s="3">
         <v>20.0</v>
       </c>
     </row>
@@ -2951,7 +3145,8 @@
       <c r="C190" s="3">
         <v>20.0</v>
       </c>
-      <c r="D190" s="3">
+      <c r="D190" s="3"/>
+      <c r="E190" s="3">
         <v>20.0</v>
       </c>
     </row>
@@ -2965,7 +3160,8 @@
       <c r="C191" s="3">
         <v>21.0</v>
       </c>
-      <c r="D191" s="3">
+      <c r="D191" s="3"/>
+      <c r="E191" s="3">
         <v>19.0</v>
       </c>
     </row>
@@ -2979,7 +3175,8 @@
       <c r="C192" s="3">
         <v>17.0</v>
       </c>
-      <c r="D192" s="3">
+      <c r="D192" s="3"/>
+      <c r="E192" s="3">
         <v>18.0</v>
       </c>
     </row>
@@ -2993,7 +3190,8 @@
       <c r="C193" s="3">
         <v>18.0</v>
       </c>
-      <c r="D193" s="3">
+      <c r="D193" s="3"/>
+      <c r="E193" s="3">
         <v>19.0</v>
       </c>
     </row>
@@ -3007,7 +3205,8 @@
       <c r="C194" s="3">
         <v>21.0</v>
       </c>
-      <c r="D194" s="3">
+      <c r="D194" s="3"/>
+      <c r="E194" s="3">
         <v>29.0</v>
       </c>
     </row>
@@ -3021,7 +3220,8 @@
       <c r="C195" s="3">
         <v>20.0</v>
       </c>
-      <c r="D195" s="3">
+      <c r="D195" s="3"/>
+      <c r="E195" s="3">
         <v>22.0</v>
       </c>
     </row>
@@ -3035,7 +3235,8 @@
       <c r="C196" s="3">
         <v>17.0</v>
       </c>
-      <c r="D196" s="3">
+      <c r="D196" s="3"/>
+      <c r="E196" s="3">
         <v>17.0</v>
       </c>
     </row>
@@ -3049,7 +3250,8 @@
       <c r="C197" s="3">
         <v>14.0</v>
       </c>
-      <c r="D197" s="3">
+      <c r="D197" s="3"/>
+      <c r="E197" s="3">
         <v>12.0</v>
       </c>
     </row>
@@ -3063,7 +3265,8 @@
       <c r="C198" s="3">
         <v>16.0</v>
       </c>
-      <c r="D198" s="3">
+      <c r="D198" s="3"/>
+      <c r="E198" s="3">
         <v>13.0</v>
       </c>
     </row>
@@ -3077,7 +3280,8 @@
       <c r="C199" s="3">
         <v>17.0</v>
       </c>
-      <c r="D199" s="3">
+      <c r="D199" s="3"/>
+      <c r="E199" s="3">
         <v>14.0</v>
       </c>
     </row>
@@ -3091,7 +3295,8 @@
       <c r="C200" s="3">
         <v>18.0</v>
       </c>
-      <c r="D200" s="3">
+      <c r="D200" s="3"/>
+      <c r="E200" s="3">
         <v>16.0</v>
       </c>
     </row>
@@ -3105,7 +3310,8 @@
       <c r="C201" s="3">
         <v>16.0</v>
       </c>
-      <c r="D201" s="3">
+      <c r="D201" s="3"/>
+      <c r="E201" s="3">
         <v>17.0</v>
       </c>
     </row>
@@ -3119,7 +3325,8 @@
       <c r="C202" s="3">
         <v>18.0</v>
       </c>
-      <c r="D202" s="3">
+      <c r="D202" s="3"/>
+      <c r="E202" s="3">
         <v>22.0</v>
       </c>
     </row>
@@ -3133,7 +3340,8 @@
       <c r="C203" s="3">
         <v>15.0</v>
       </c>
-      <c r="D203" s="3">
+      <c r="D203" s="3"/>
+      <c r="E203" s="3">
         <v>25.0</v>
       </c>
     </row>
@@ -3147,7 +3355,8 @@
       <c r="C204" s="3">
         <v>14.0</v>
       </c>
-      <c r="D204" s="3">
+      <c r="D204" s="3"/>
+      <c r="E204" s="3">
         <v>26.0</v>
       </c>
     </row>
@@ -3161,7 +3370,8 @@
       <c r="C205" s="3">
         <v>17.0</v>
       </c>
-      <c r="D205" s="3">
+      <c r="D205" s="3"/>
+      <c r="E205" s="3">
         <v>28.0</v>
       </c>
     </row>
@@ -3175,7 +3385,8 @@
       <c r="C206" s="3">
         <v>24.0</v>
       </c>
-      <c r="D206" s="3">
+      <c r="D206" s="3"/>
+      <c r="E206" s="3">
         <v>37.0</v>
       </c>
     </row>
@@ -3189,7 +3400,8 @@
       <c r="C207" s="3">
         <v>20.0</v>
       </c>
-      <c r="D207" s="3">
+      <c r="D207" s="3"/>
+      <c r="E207" s="3">
         <v>29.0</v>
       </c>
     </row>
@@ -3203,7 +3415,8 @@
       <c r="C208" s="3">
         <v>21.0</v>
       </c>
-      <c r="D208" s="3">
+      <c r="D208" s="3"/>
+      <c r="E208" s="3">
         <v>25.0</v>
       </c>
     </row>
@@ -3217,7 +3430,8 @@
       <c r="C209" s="3">
         <v>21.0</v>
       </c>
-      <c r="D209" s="3">
+      <c r="D209" s="3"/>
+      <c r="E209" s="3">
         <v>23.0</v>
       </c>
     </row>
@@ -3231,7 +3445,8 @@
       <c r="C210" s="3">
         <v>24.0</v>
       </c>
-      <c r="D210" s="3">
+      <c r="D210" s="3"/>
+      <c r="E210" s="3">
         <v>23.0</v>
       </c>
     </row>
@@ -3245,7 +3460,8 @@
       <c r="C211" s="3">
         <v>27.0</v>
       </c>
-      <c r="D211" s="3">
+      <c r="D211" s="3"/>
+      <c r="E211" s="3">
         <v>25.0</v>
       </c>
     </row>
@@ -3259,7 +3475,8 @@
       <c r="C212" s="3">
         <v>28.0</v>
       </c>
-      <c r="D212" s="3">
+      <c r="D212" s="3"/>
+      <c r="E212" s="3">
         <v>24.0</v>
       </c>
     </row>
@@ -3273,7 +3490,8 @@
       <c r="C213" s="3">
         <v>34.0</v>
       </c>
-      <c r="D213" s="3">
+      <c r="D213" s="3"/>
+      <c r="E213" s="3">
         <v>26.0</v>
       </c>
     </row>
@@ -3287,7 +3505,8 @@
       <c r="C214" s="3">
         <v>33.0</v>
       </c>
-      <c r="D214" s="3">
+      <c r="D214" s="3"/>
+      <c r="E214" s="3">
         <v>25.0</v>
       </c>
     </row>
@@ -3301,7 +3520,8 @@
       <c r="C215" s="3">
         <v>31.0</v>
       </c>
-      <c r="D215" s="3">
+      <c r="D215" s="3"/>
+      <c r="E215" s="3">
         <v>22.0</v>
       </c>
     </row>
@@ -3315,7 +3535,8 @@
       <c r="C216" s="3">
         <v>28.0</v>
       </c>
-      <c r="D216" s="3">
+      <c r="D216" s="3"/>
+      <c r="E216" s="3">
         <v>20.0</v>
       </c>
     </row>
@@ -3329,7 +3550,8 @@
       <c r="C217" s="3">
         <v>29.0</v>
       </c>
-      <c r="D217" s="3">
+      <c r="D217" s="3"/>
+      <c r="E217" s="3">
         <v>23.0</v>
       </c>
     </row>
@@ -3343,7 +3565,8 @@
       <c r="C218" s="3">
         <v>44.0</v>
       </c>
-      <c r="D218" s="3">
+      <c r="D218" s="3"/>
+      <c r="E218" s="3">
         <v>37.0</v>
       </c>
     </row>
@@ -3357,7 +3580,8 @@
       <c r="C219" s="3">
         <v>38.0</v>
       </c>
-      <c r="D219" s="3">
+      <c r="D219" s="3"/>
+      <c r="E219" s="3">
         <v>29.0</v>
       </c>
     </row>
@@ -3371,7 +3595,8 @@
       <c r="C220" s="3">
         <v>40.0</v>
       </c>
-      <c r="D220" s="3">
+      <c r="D220" s="3"/>
+      <c r="E220" s="3">
         <v>27.0</v>
       </c>
     </row>
@@ -3385,7 +3610,8 @@
       <c r="C221" s="3">
         <v>36.0</v>
       </c>
-      <c r="D221" s="3">
+      <c r="D221" s="3"/>
+      <c r="E221" s="3">
         <v>22.0</v>
       </c>
     </row>
@@ -3399,7 +3625,8 @@
       <c r="C222" s="3">
         <v>40.0</v>
       </c>
-      <c r="D222" s="3">
+      <c r="D222" s="3"/>
+      <c r="E222" s="3">
         <v>24.0</v>
       </c>
     </row>
@@ -3413,7 +3640,8 @@
       <c r="C223" s="3">
         <v>38.0</v>
       </c>
-      <c r="D223" s="3">
+      <c r="D223" s="3"/>
+      <c r="E223" s="3">
         <v>22.0</v>
       </c>
     </row>
@@ -3427,7 +3655,8 @@
       <c r="C224" s="3">
         <v>40.0</v>
       </c>
-      <c r="D224" s="3">
+      <c r="D224" s="3"/>
+      <c r="E224" s="3">
         <v>20.0</v>
       </c>
     </row>
@@ -3441,7 +3670,8 @@
       <c r="C225" s="3">
         <v>41.0</v>
       </c>
-      <c r="D225" s="3">
+      <c r="D225" s="3"/>
+      <c r="E225" s="3">
         <v>23.0</v>
       </c>
     </row>
@@ -3455,7 +3685,8 @@
       <c r="C226" s="3">
         <v>37.0</v>
       </c>
-      <c r="D226" s="3">
+      <c r="D226" s="3"/>
+      <c r="E226" s="3">
         <v>22.0</v>
       </c>
     </row>
@@ -3469,7 +3700,8 @@
       <c r="C227" s="3">
         <v>31.0</v>
       </c>
-      <c r="D227" s="3">
+      <c r="D227" s="3"/>
+      <c r="E227" s="3">
         <v>20.0</v>
       </c>
     </row>
@@ -3483,7 +3715,8 @@
       <c r="C228" s="3">
         <v>33.0</v>
       </c>
-      <c r="D228" s="3">
+      <c r="D228" s="3"/>
+      <c r="E228" s="3">
         <v>20.0</v>
       </c>
     </row>
@@ -3497,7 +3730,8 @@
       <c r="C229" s="3">
         <v>32.0</v>
       </c>
-      <c r="D229" s="3">
+      <c r="D229" s="3"/>
+      <c r="E229" s="3">
         <v>22.0</v>
       </c>
     </row>
@@ -3511,7 +3745,8 @@
       <c r="C230" s="3">
         <v>44.0</v>
       </c>
-      <c r="D230" s="3">
+      <c r="D230" s="3"/>
+      <c r="E230" s="3">
         <v>36.0</v>
       </c>
     </row>
@@ -3525,7 +3760,8 @@
       <c r="C231" s="3">
         <v>37.0</v>
       </c>
-      <c r="D231" s="3">
+      <c r="D231" s="3"/>
+      <c r="E231" s="3">
         <v>30.0</v>
       </c>
     </row>
@@ -3539,7 +3775,8 @@
       <c r="C232" s="3">
         <v>37.0</v>
       </c>
-      <c r="D232" s="3">
+      <c r="D232" s="3"/>
+      <c r="E232" s="3">
         <v>27.0</v>
       </c>
     </row>
@@ -3553,7 +3790,8 @@
       <c r="C233" s="3">
         <v>33.0</v>
       </c>
-      <c r="D233" s="3">
+      <c r="D233" s="3"/>
+      <c r="E233" s="3">
         <v>24.0</v>
       </c>
     </row>
@@ -3567,7 +3805,8 @@
       <c r="C234" s="3">
         <v>36.0</v>
       </c>
-      <c r="D234" s="3">
+      <c r="D234" s="3"/>
+      <c r="E234" s="3">
         <v>24.0</v>
       </c>
     </row>
@@ -3581,7 +3820,8 @@
       <c r="C235" s="3">
         <v>34.0</v>
       </c>
-      <c r="D235" s="3">
+      <c r="D235" s="3"/>
+      <c r="E235" s="3">
         <v>19.0</v>
       </c>
     </row>
@@ -3595,7 +3835,8 @@
       <c r="C236" s="3">
         <v>33.0</v>
       </c>
-      <c r="D236" s="3">
+      <c r="D236" s="3"/>
+      <c r="E236" s="3">
         <v>19.0</v>
       </c>
     </row>
@@ -3609,7 +3850,8 @@
       <c r="C237" s="3">
         <v>37.0</v>
       </c>
-      <c r="D237" s="3">
+      <c r="D237" s="3"/>
+      <c r="E237" s="3">
         <v>18.0</v>
       </c>
     </row>
@@ -3623,7 +3865,8 @@
       <c r="C238" s="3">
         <v>35.0</v>
       </c>
-      <c r="D238" s="3">
+      <c r="D238" s="3"/>
+      <c r="E238" s="3">
         <v>18.0</v>
       </c>
     </row>
@@ -3637,7 +3880,8 @@
       <c r="C239" s="3">
         <v>33.0</v>
       </c>
-      <c r="D239" s="3">
+      <c r="D239" s="3"/>
+      <c r="E239" s="3">
         <v>17.0</v>
       </c>
     </row>
@@ -3651,7 +3895,8 @@
       <c r="C240" s="3">
         <v>31.0</v>
       </c>
-      <c r="D240" s="3">
+      <c r="D240" s="3"/>
+      <c r="E240" s="3">
         <v>18.0</v>
       </c>
     </row>
